--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1916">
   <si>
     <t>en</t>
   </si>
@@ -1400,6 +1400,12 @@
   </si>
   <si>
     <t>Explosief</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Oog</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6105,7 +6111,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8651,12 +8657,12 @@
         <v>465</v>
       </c>
       <c r="B317" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B318" t="s">
         <v>467</v>
@@ -8667,20 +8673,20 @@
         <v>468</v>
       </c>
       <c r="B319" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B320" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B321" t="s">
         <v>471</v>
@@ -8699,28 +8705,28 @@
         <v>474</v>
       </c>
       <c r="B323" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B324" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B326" t="s">
         <v>478</v>
@@ -8747,12 +8753,12 @@
         <v>483</v>
       </c>
       <c r="B329" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B330" t="s">
         <v>485</v>
@@ -8771,12 +8777,12 @@
         <v>488</v>
       </c>
       <c r="B332" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B333" t="s">
         <v>490</v>
@@ -8827,20 +8833,20 @@
         <v>501</v>
       </c>
       <c r="B339" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B340" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B341" t="s">
         <v>504</v>
@@ -8851,12 +8857,12 @@
         <v>505</v>
       </c>
       <c r="B342" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B343" t="s">
         <v>507</v>
@@ -8875,20 +8881,20 @@
         <v>510</v>
       </c>
       <c r="B345" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B346" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B347" t="s">
         <v>513</v>
@@ -8987,12 +8993,12 @@
         <v>536</v>
       </c>
       <c r="B359" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B360" t="s">
         <v>538</v>
@@ -9539,12 +9545,12 @@
         <v>673</v>
       </c>
       <c r="B428" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B429" t="s">
         <v>675</v>
@@ -9555,12 +9561,12 @@
         <v>676</v>
       </c>
       <c r="B430" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B431" t="s">
         <v>678</v>
@@ -9595,12 +9601,12 @@
         <v>685</v>
       </c>
       <c r="B435" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B436" t="s">
         <v>687</v>
@@ -9635,12 +9641,12 @@
         <v>694</v>
       </c>
       <c r="B440" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B441" t="s">
         <v>696</v>
@@ -9659,12 +9665,12 @@
         <v>699</v>
       </c>
       <c r="B443" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B444" t="s">
         <v>701</v>
@@ -9675,12 +9681,12 @@
         <v>702</v>
       </c>
       <c r="B445" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B446" t="s">
         <v>704</v>
@@ -9691,12 +9697,12 @@
         <v>705</v>
       </c>
       <c r="B447" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B448" t="s">
         <v>707</v>
@@ -9707,12 +9713,12 @@
         <v>708</v>
       </c>
       <c r="B449" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B450" t="s">
         <v>710</v>
@@ -9731,12 +9737,12 @@
         <v>713</v>
       </c>
       <c r="B452" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B453" t="s">
         <v>715</v>
@@ -9755,20 +9761,20 @@
         <v>718</v>
       </c>
       <c r="B455" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B456" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B457" t="s">
         <v>721</v>
@@ -9795,52 +9801,52 @@
         <v>726</v>
       </c>
       <c r="B460" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B461" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B462" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B463" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B464" t="s">
-        <v>464</v>
+        <v>731</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B465" t="s">
-        <v>731</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B466" t="s">
         <v>733</v>
@@ -9859,52 +9865,52 @@
         <v>736</v>
       </c>
       <c r="B468" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B469" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B470" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B471" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B472" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B473" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B474" t="s">
         <v>743</v>
@@ -9915,12 +9921,12 @@
         <v>744</v>
       </c>
       <c r="B475" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B476" t="s">
         <v>746</v>
@@ -9939,12 +9945,12 @@
         <v>749</v>
       </c>
       <c r="B478" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B479" t="s">
         <v>751</v>
@@ -9955,12 +9961,12 @@
         <v>752</v>
       </c>
       <c r="B480" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B481" t="s">
         <v>754</v>
@@ -9971,20 +9977,20 @@
         <v>755</v>
       </c>
       <c r="B482" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B483" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B484" t="s">
         <v>758</v>
@@ -9995,36 +10001,36 @@
         <v>759</v>
       </c>
       <c r="B485" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B487" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B488" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B489" t="s">
         <v>764</v>
@@ -10179,20 +10185,20 @@
         <v>801</v>
       </c>
       <c r="B508" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B509" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B510" t="s">
         <v>804</v>
@@ -10203,12 +10209,12 @@
         <v>805</v>
       </c>
       <c r="B511" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B512" t="s">
         <v>807</v>
@@ -10259,20 +10265,20 @@
         <v>818</v>
       </c>
       <c r="B518" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B519" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B520" t="s">
         <v>821</v>
@@ -10299,12 +10305,12 @@
         <v>826</v>
       </c>
       <c r="B523" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B524" t="s">
         <v>828</v>
@@ -10355,12 +10361,12 @@
         <v>839</v>
       </c>
       <c r="B530" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B531" t="s">
         <v>841</v>
@@ -10379,12 +10385,12 @@
         <v>844</v>
       </c>
       <c r="B533" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B534" t="s">
         <v>846</v>
@@ -10403,36 +10409,36 @@
         <v>849</v>
       </c>
       <c r="B536" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B537" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B538" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B539" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B540" t="s">
         <v>854</v>
@@ -10467,20 +10473,20 @@
         <v>861</v>
       </c>
       <c r="B544" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B545" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B546" t="s">
         <v>864</v>
@@ -10491,12 +10497,12 @@
         <v>865</v>
       </c>
       <c r="B547" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B548" t="s">
         <v>867</v>
@@ -10507,12 +10513,12 @@
         <v>868</v>
       </c>
       <c r="B549" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B550" t="s">
         <v>870</v>
@@ -10539,12 +10545,12 @@
         <v>875</v>
       </c>
       <c r="B553" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B554" t="s">
         <v>877</v>
@@ -10603,20 +10609,20 @@
         <v>890</v>
       </c>
       <c r="B561" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B563" t="s">
         <v>893</v>
@@ -10643,12 +10649,12 @@
         <v>898</v>
       </c>
       <c r="B566" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B567" t="s">
         <v>900</v>
@@ -10667,12 +10673,12 @@
         <v>903</v>
       </c>
       <c r="B569" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B570" t="s">
         <v>905</v>
@@ -10699,28 +10705,28 @@
         <v>910</v>
       </c>
       <c r="B573" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B576" t="s">
         <v>914</v>
@@ -10731,12 +10737,12 @@
         <v>915</v>
       </c>
       <c r="B577" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B578" t="s">
         <v>917</v>
@@ -10755,12 +10761,12 @@
         <v>920</v>
       </c>
       <c r="B580" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B581" t="s">
         <v>922</v>
@@ -10771,20 +10777,20 @@
         <v>923</v>
       </c>
       <c r="B582" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B583" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B584" t="s">
         <v>926</v>
@@ -10843,12 +10849,12 @@
         <v>939</v>
       </c>
       <c r="B591" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B592" t="s">
         <v>941</v>
@@ -10915,12 +10921,12 @@
         <v>956</v>
       </c>
       <c r="B600" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B601" t="s">
         <v>958</v>
@@ -10931,28 +10937,28 @@
         <v>959</v>
       </c>
       <c r="B602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B603" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B604" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B605" t="s">
         <v>963</v>
@@ -10979,12 +10985,12 @@
         <v>968</v>
       </c>
       <c r="B608" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B609" t="s">
         <v>970</v>
@@ -10995,12 +11001,12 @@
         <v>971</v>
       </c>
       <c r="B610" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B611" t="s">
         <v>973</v>
@@ -11019,20 +11025,20 @@
         <v>976</v>
       </c>
       <c r="B613" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B614" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B615" t="s">
         <v>979</v>
@@ -11043,12 +11049,12 @@
         <v>980</v>
       </c>
       <c r="B616" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B617" t="s">
         <v>982</v>
@@ -11091,12 +11097,12 @@
         <v>991</v>
       </c>
       <c r="B622" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B623" t="s">
         <v>993</v>
@@ -11107,20 +11113,20 @@
         <v>994</v>
       </c>
       <c r="B624" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B625" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B626" t="s">
         <v>997</v>
@@ -11131,36 +11137,36 @@
         <v>998</v>
       </c>
       <c r="B627" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B628" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B629" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B630" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B631" t="s">
         <v>1003</v>
@@ -11171,20 +11177,20 @@
         <v>1004</v>
       </c>
       <c r="B632" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B633" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B634" t="s">
         <v>1007</v>
@@ -11195,28 +11201,28 @@
         <v>1008</v>
       </c>
       <c r="B635" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B636" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B637" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B638" t="s">
         <v>1012</v>
@@ -11227,36 +11233,36 @@
         <v>1013</v>
       </c>
       <c r="B639" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B640" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B641" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B643" t="s">
         <v>1018</v>
@@ -11291,12 +11297,12 @@
         <v>1025</v>
       </c>
       <c r="B647" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B648" t="s">
         <v>1027</v>
@@ -11307,12 +11313,12 @@
         <v>1028</v>
       </c>
       <c r="B649" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B650" t="s">
         <v>1030</v>
@@ -11323,12 +11329,12 @@
         <v>1031</v>
       </c>
       <c r="B651" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B652" t="s">
         <v>1033</v>
@@ -11355,12 +11361,12 @@
         <v>1038</v>
       </c>
       <c r="B655" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B656" t="s">
         <v>1040</v>
@@ -11403,12 +11409,12 @@
         <v>1049</v>
       </c>
       <c r="B661" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B662" t="s">
         <v>1051</v>
@@ -11419,28 +11425,28 @@
         <v>1052</v>
       </c>
       <c r="B663" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B664" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B665" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B666" t="s">
         <v>1056</v>
@@ -11475,12 +11481,12 @@
         <v>1063</v>
       </c>
       <c r="B670" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B671" t="s">
         <v>1065</v>
@@ -11523,12 +11529,12 @@
         <v>1074</v>
       </c>
       <c r="B676" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B677" t="s">
         <v>1076</v>
@@ -11555,20 +11561,20 @@
         <v>1081</v>
       </c>
       <c r="B680" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B681" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B682" t="s">
         <v>1084</v>
@@ -11627,12 +11633,12 @@
         <v>1097</v>
       </c>
       <c r="B689" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B690" t="s">
         <v>1099</v>
@@ -11651,12 +11657,12 @@
         <v>1102</v>
       </c>
       <c r="B692" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B693" t="s">
         <v>1104</v>
@@ -11699,12 +11705,12 @@
         <v>1113</v>
       </c>
       <c r="B698" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B699" t="s">
         <v>1115</v>
@@ -11715,20 +11721,20 @@
         <v>1116</v>
       </c>
       <c r="B700" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B702" t="s">
         <v>1119</v>
@@ -11739,76 +11745,76 @@
         <v>1120</v>
       </c>
       <c r="B703" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B706" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B707" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B708" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B709" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B710" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B711" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B712" t="s">
         <v>1130</v>
@@ -11867,12 +11873,12 @@
         <v>1143</v>
       </c>
       <c r="B719" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B720" t="s">
         <v>1145</v>
@@ -11947,12 +11953,12 @@
         <v>1162</v>
       </c>
       <c r="B729" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B730" t="s">
         <v>1164</v>
@@ -11979,12 +11985,12 @@
         <v>1169</v>
       </c>
       <c r="B733" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B734" t="s">
         <v>1171</v>
@@ -11995,12 +12001,12 @@
         <v>1172</v>
       </c>
       <c r="B735" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B736" t="s">
         <v>1174</v>
@@ -12019,20 +12025,20 @@
         <v>1177</v>
       </c>
       <c r="B738" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B739" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B740" t="s">
         <v>1180</v>
@@ -12059,28 +12065,28 @@
         <v>1185</v>
       </c>
       <c r="B743" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B744" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B746" t="s">
         <v>1189</v>
@@ -12171,12 +12177,12 @@
         <v>1210</v>
       </c>
       <c r="B757" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B758" t="s">
         <v>1212</v>
@@ -12187,20 +12193,20 @@
         <v>1213</v>
       </c>
       <c r="B759" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B761" t="s">
         <v>1216</v>
@@ -12243,12 +12249,12 @@
         <v>1225</v>
       </c>
       <c r="B766" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B767" t="s">
         <v>1227</v>
@@ -12283,12 +12289,12 @@
         <v>1234</v>
       </c>
       <c r="B771" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B772" t="s">
         <v>1236</v>
@@ -12355,20 +12361,20 @@
         <v>1251</v>
       </c>
       <c r="B780" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B781" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B782" t="s">
         <v>1254</v>
@@ -12395,12 +12401,12 @@
         <v>1259</v>
       </c>
       <c r="B785" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B786" t="s">
         <v>1261</v>
@@ -12411,60 +12417,60 @@
         <v>1262</v>
       </c>
       <c r="B787" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B788" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B789" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B794" t="s">
         <v>1270</v>
@@ -12475,20 +12481,20 @@
         <v>1271</v>
       </c>
       <c r="B795" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B796" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B797" t="s">
         <v>1274</v>
@@ -12547,28 +12553,28 @@
         <v>1287</v>
       </c>
       <c r="B804" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B805" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B807" t="s">
         <v>1291</v>
@@ -12643,12 +12649,12 @@
         <v>1308</v>
       </c>
       <c r="B816" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B817" t="s">
         <v>1310</v>
@@ -12659,12 +12665,12 @@
         <v>1311</v>
       </c>
       <c r="B818" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B819" t="s">
         <v>1313</v>
@@ -12691,12 +12697,12 @@
         <v>1318</v>
       </c>
       <c r="B822" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B823" t="s">
         <v>1320</v>
@@ -12707,12 +12713,12 @@
         <v>1321</v>
       </c>
       <c r="B824" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B825" t="s">
         <v>1323</v>
@@ -12723,23 +12729,23 @@
         <v>1324</v>
       </c>
       <c r="B826" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B827" t="s">
-        <v>300</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B828" t="s">
-        <v>1327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -12747,28 +12753,28 @@
         <v>1328</v>
       </c>
       <c r="B829" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B830" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B832" t="s">
         <v>1332</v>
@@ -12827,36 +12833,36 @@
         <v>1345</v>
       </c>
       <c r="B839" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B840" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B843" t="s">
         <v>1350</v>
@@ -12939,12 +12945,12 @@
         <v>1369</v>
       </c>
       <c r="B853" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B854" t="s">
         <v>1371</v>
@@ -12963,36 +12969,36 @@
         <v>1374</v>
       </c>
       <c r="B856" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B857" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B858" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B860" t="s">
         <v>1379</v>
@@ -13003,12 +13009,12 @@
         <v>1380</v>
       </c>
       <c r="B861" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B862" t="s">
         <v>1382</v>
@@ -13027,12 +13033,12 @@
         <v>1385</v>
       </c>
       <c r="B864" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B865" t="s">
         <v>1387</v>
@@ -13083,12 +13089,12 @@
         <v>1398</v>
       </c>
       <c r="B871" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B872" t="s">
         <v>1400</v>
@@ -13115,20 +13121,20 @@
         <v>1405</v>
       </c>
       <c r="B875" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B876" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B877" t="s">
         <v>1408</v>
@@ -13155,12 +13161,12 @@
         <v>1413</v>
       </c>
       <c r="B880" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B881" t="s">
         <v>1415</v>
@@ -13171,36 +13177,36 @@
         <v>1416</v>
       </c>
       <c r="B882" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B883" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B884" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B885" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B886" t="s">
         <v>1421</v>
@@ -13227,12 +13233,12 @@
         <v>1426</v>
       </c>
       <c r="B889" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B890" t="s">
         <v>1428</v>
@@ -13267,12 +13273,12 @@
         <v>1435</v>
       </c>
       <c r="B894" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B895" t="s">
         <v>1437</v>
@@ -13323,60 +13329,60 @@
         <v>1448</v>
       </c>
       <c r="B901" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B902" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B903" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B904" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B905" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B906" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B907" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B908" t="s">
         <v>1456</v>
@@ -13403,28 +13409,28 @@
         <v>1461</v>
       </c>
       <c r="B911" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B912" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B913" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B914" t="s">
         <v>1465</v>
@@ -13467,20 +13473,20 @@
         <v>1474</v>
       </c>
       <c r="B919" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B920" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B921" t="s">
         <v>1477</v>
@@ -13515,12 +13521,12 @@
         <v>1484</v>
       </c>
       <c r="B925" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B926" t="s">
         <v>1486</v>
@@ -13539,12 +13545,12 @@
         <v>1489</v>
       </c>
       <c r="B928" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B929" t="s">
         <v>1491</v>
@@ -13611,28 +13617,28 @@
         <v>1506</v>
       </c>
       <c r="B937" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B938" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B939" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B940" t="s">
         <v>1510</v>
@@ -13659,20 +13665,20 @@
         <v>1515</v>
       </c>
       <c r="B943" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B944" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B945" t="s">
         <v>1518</v>
@@ -13683,20 +13689,20 @@
         <v>1519</v>
       </c>
       <c r="B946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B947" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B948" t="s">
         <v>1522</v>
@@ -13731,20 +13737,20 @@
         <v>1529</v>
       </c>
       <c r="B952" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B953" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B954" t="s">
         <v>1532</v>
@@ -13803,12 +13809,12 @@
         <v>1545</v>
       </c>
       <c r="B961" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B962" t="s">
         <v>1547</v>
@@ -13915,20 +13921,20 @@
         <v>1572</v>
       </c>
       <c r="B975" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B976" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B977" t="s">
         <v>1575</v>
@@ -13947,60 +13953,60 @@
         <v>1578</v>
       </c>
       <c r="B979" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B980" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B981" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B982" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B983" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B984" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B985" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B986" t="s">
         <v>1586</v>
@@ -14027,12 +14033,12 @@
         <v>1591</v>
       </c>
       <c r="B989" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B990" t="s">
         <v>1593</v>
@@ -14051,20 +14057,20 @@
         <v>1596</v>
       </c>
       <c r="B992" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B993" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B994" t="s">
         <v>1599</v>
@@ -14083,12 +14089,12 @@
         <v>1602</v>
       </c>
       <c r="B996" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B997" t="s">
         <v>1604</v>
@@ -14107,36 +14113,36 @@
         <v>1607</v>
       </c>
       <c r="B999" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1000" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1001" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1002" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1003" t="s">
         <v>1612</v>
@@ -14147,36 +14153,36 @@
         <v>1613</v>
       </c>
       <c r="B1004" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1005" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1006" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1007" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1008" t="s">
         <v>1618</v>
@@ -14211,20 +14217,20 @@
         <v>1625</v>
       </c>
       <c r="B1012" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1013" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1014" t="s">
         <v>1628</v>
@@ -14243,12 +14249,12 @@
         <v>1631</v>
       </c>
       <c r="B1016" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1017" t="s">
         <v>1633</v>
@@ -14275,12 +14281,12 @@
         <v>1638</v>
       </c>
       <c r="B1020" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1021" t="s">
         <v>1640</v>
@@ -14291,20 +14297,20 @@
         <v>1641</v>
       </c>
       <c r="B1022" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1023" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1024" t="s">
         <v>1644</v>
@@ -14323,28 +14329,28 @@
         <v>1647</v>
       </c>
       <c r="B1026" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1027" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1028" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1029" t="s">
         <v>1651</v>
@@ -14355,20 +14361,20 @@
         <v>1652</v>
       </c>
       <c r="B1030" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1031" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1032" t="s">
         <v>1655</v>
@@ -14379,12 +14385,12 @@
         <v>1656</v>
       </c>
       <c r="B1033" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1034" t="s">
         <v>1658</v>
@@ -14459,12 +14465,12 @@
         <v>1675</v>
       </c>
       <c r="B1043" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1044" t="s">
         <v>1677</v>
@@ -14659,12 +14665,12 @@
         <v>1724</v>
       </c>
       <c r="B1068" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1069" t="s">
         <v>1726</v>
@@ -14683,20 +14689,20 @@
         <v>1729</v>
       </c>
       <c r="B1071" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1072" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1073" t="s">
         <v>1732</v>
@@ -14731,12 +14737,12 @@
         <v>1739</v>
       </c>
       <c r="B1077" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1078" t="s">
         <v>1741</v>
@@ -14747,12 +14753,12 @@
         <v>1742</v>
       </c>
       <c r="B1079" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1080" t="s">
         <v>1744</v>
@@ -14803,23 +14809,23 @@
         <v>1755</v>
       </c>
       <c r="B1086" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1087" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1088" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -14859,12 +14865,12 @@
         <v>1767</v>
       </c>
       <c r="B1093" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1094" t="s">
         <v>1769</v>
@@ -14883,12 +14889,12 @@
         <v>1772</v>
       </c>
       <c r="B1096" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1097" t="s">
         <v>1774</v>
@@ -14899,20 +14905,20 @@
         <v>1775</v>
       </c>
       <c r="B1098" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1099" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1100" t="s">
         <v>1778</v>
@@ -15123,44 +15129,44 @@
         <v>1829</v>
       </c>
       <c r="B1126" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1127" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1128" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1129" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1130" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1131" t="s">
         <v>1835</v>
@@ -15179,28 +15185,28 @@
         <v>1838</v>
       </c>
       <c r="B1133" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1134" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1135" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1136" t="s">
         <v>1842</v>
@@ -15219,12 +15225,12 @@
         <v>1845</v>
       </c>
       <c r="B1138" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1139" t="s">
         <v>1847</v>
@@ -15275,12 +15281,12 @@
         <v>1858</v>
       </c>
       <c r="B1145" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1146" t="s">
         <v>1860</v>
@@ -15331,28 +15337,28 @@
         <v>1871</v>
       </c>
       <c r="B1152" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1153" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1154" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1155" t="s">
         <v>1875</v>
@@ -15363,12 +15369,12 @@
         <v>1876</v>
       </c>
       <c r="B1156" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1157" t="s">
         <v>1878</v>
@@ -15379,20 +15385,20 @@
         <v>1879</v>
       </c>
       <c r="B1158" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1159" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1160" t="s">
         <v>1882</v>
@@ -15403,36 +15409,36 @@
         <v>1883</v>
       </c>
       <c r="B1161" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1162" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1163" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1164" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1165" t="s">
         <v>1888</v>
@@ -15451,12 +15457,12 @@
         <v>1891</v>
       </c>
       <c r="B1167" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1168" t="s">
         <v>1893</v>
@@ -15467,12 +15473,12 @@
         <v>1894</v>
       </c>
       <c r="B1169" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1170" t="s">
         <v>1896</v>
@@ -15499,12 +15505,12 @@
         <v>1901</v>
       </c>
       <c r="B1173" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1174" t="s">
         <v>1903</v>
@@ -15523,20 +15529,20 @@
         <v>1906</v>
       </c>
       <c r="B1176" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1177" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1178" t="s">
         <v>1909</v>
@@ -15558,8 +15564,16 @@
         <v>1913</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1915</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1918">
   <si>
     <t>en</t>
   </si>
@@ -4529,6 +4529,12 @@
   </si>
   <si>
     <t>Zeven Dodelijke Zonden</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Schaduw van de Kolossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6111,7 +6117,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13625,28 +13631,28 @@
         <v>1508</v>
       </c>
       <c r="B938" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B939" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B941" t="s">
         <v>1512</v>
@@ -13673,20 +13679,20 @@
         <v>1517</v>
       </c>
       <c r="B944" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B945" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B946" t="s">
         <v>1520</v>
@@ -13697,20 +13703,20 @@
         <v>1521</v>
       </c>
       <c r="B947" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B949" t="s">
         <v>1524</v>
@@ -13745,20 +13751,20 @@
         <v>1531</v>
       </c>
       <c r="B953" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B954" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B955" t="s">
         <v>1534</v>
@@ -13817,12 +13823,12 @@
         <v>1547</v>
       </c>
       <c r="B962" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B963" t="s">
         <v>1549</v>
@@ -13929,20 +13935,20 @@
         <v>1574</v>
       </c>
       <c r="B976" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B977" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B978" t="s">
         <v>1577</v>
@@ -13961,60 +13967,60 @@
         <v>1580</v>
       </c>
       <c r="B980" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B981" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B982" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B983" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B984" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B985" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B986" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B987" t="s">
         <v>1588</v>
@@ -14041,12 +14047,12 @@
         <v>1593</v>
       </c>
       <c r="B990" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B991" t="s">
         <v>1595</v>
@@ -14065,20 +14071,20 @@
         <v>1598</v>
       </c>
       <c r="B993" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B994" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B995" t="s">
         <v>1601</v>
@@ -14097,12 +14103,12 @@
         <v>1604</v>
       </c>
       <c r="B997" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B998" t="s">
         <v>1606</v>
@@ -14121,36 +14127,36 @@
         <v>1609</v>
       </c>
       <c r="B1000" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1001" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1002" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1003" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1004" t="s">
         <v>1614</v>
@@ -14161,36 +14167,36 @@
         <v>1615</v>
       </c>
       <c r="B1005" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1006" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1007" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1008" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1009" t="s">
         <v>1620</v>
@@ -14225,20 +14231,20 @@
         <v>1627</v>
       </c>
       <c r="B1013" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1014" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1015" t="s">
         <v>1630</v>
@@ -14257,12 +14263,12 @@
         <v>1633</v>
       </c>
       <c r="B1017" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1018" t="s">
         <v>1635</v>
@@ -14289,12 +14295,12 @@
         <v>1640</v>
       </c>
       <c r="B1021" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1022" t="s">
         <v>1642</v>
@@ -14305,20 +14311,20 @@
         <v>1643</v>
       </c>
       <c r="B1023" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1024" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1025" t="s">
         <v>1646</v>
@@ -14337,28 +14343,28 @@
         <v>1649</v>
       </c>
       <c r="B1027" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1028" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1029" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1030" t="s">
         <v>1653</v>
@@ -14369,20 +14375,20 @@
         <v>1654</v>
       </c>
       <c r="B1031" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1032" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1033" t="s">
         <v>1657</v>
@@ -14393,12 +14399,12 @@
         <v>1658</v>
       </c>
       <c r="B1034" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1035" t="s">
         <v>1660</v>
@@ -14473,12 +14479,12 @@
         <v>1677</v>
       </c>
       <c r="B1044" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1045" t="s">
         <v>1679</v>
@@ -14673,12 +14679,12 @@
         <v>1726</v>
       </c>
       <c r="B1069" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1070" t="s">
         <v>1728</v>
@@ -14697,20 +14703,20 @@
         <v>1731</v>
       </c>
       <c r="B1072" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1073" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1074" t="s">
         <v>1734</v>
@@ -14745,12 +14751,12 @@
         <v>1741</v>
       </c>
       <c r="B1078" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1079" t="s">
         <v>1743</v>
@@ -14761,12 +14767,12 @@
         <v>1744</v>
       </c>
       <c r="B1080" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1081" t="s">
         <v>1746</v>
@@ -14817,23 +14823,23 @@
         <v>1757</v>
       </c>
       <c r="B1087" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1088" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1089" t="s">
         <v>1759</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -14873,12 +14879,12 @@
         <v>1769</v>
       </c>
       <c r="B1094" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1095" t="s">
         <v>1771</v>
@@ -14897,12 +14903,12 @@
         <v>1774</v>
       </c>
       <c r="B1097" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1098" t="s">
         <v>1776</v>
@@ -14913,20 +14919,20 @@
         <v>1777</v>
       </c>
       <c r="B1099" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1100" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1101" t="s">
         <v>1780</v>
@@ -15137,44 +15143,44 @@
         <v>1831</v>
       </c>
       <c r="B1127" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1128" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1129" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1130" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1131" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1132" t="s">
         <v>1837</v>
@@ -15193,28 +15199,28 @@
         <v>1840</v>
       </c>
       <c r="B1134" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1135" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1136" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1137" t="s">
         <v>1844</v>
@@ -15233,12 +15239,12 @@
         <v>1847</v>
       </c>
       <c r="B1139" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1140" t="s">
         <v>1849</v>
@@ -15289,12 +15295,12 @@
         <v>1860</v>
       </c>
       <c r="B1146" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1147" t="s">
         <v>1862</v>
@@ -15345,28 +15351,28 @@
         <v>1873</v>
       </c>
       <c r="B1153" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1154" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1155" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1156" t="s">
         <v>1877</v>
@@ -15377,12 +15383,12 @@
         <v>1878</v>
       </c>
       <c r="B1157" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1158" t="s">
         <v>1880</v>
@@ -15393,20 +15399,20 @@
         <v>1881</v>
       </c>
       <c r="B1159" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1160" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1161" t="s">
         <v>1884</v>
@@ -15417,36 +15423,36 @@
         <v>1885</v>
       </c>
       <c r="B1162" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1163" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1164" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1165" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1166" t="s">
         <v>1890</v>
@@ -15465,12 +15471,12 @@
         <v>1893</v>
       </c>
       <c r="B1168" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1169" t="s">
         <v>1895</v>
@@ -15481,12 +15487,12 @@
         <v>1896</v>
       </c>
       <c r="B1170" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1171" t="s">
         <v>1898</v>
@@ -15513,12 +15519,12 @@
         <v>1903</v>
       </c>
       <c r="B1174" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1175" t="s">
         <v>1905</v>
@@ -15537,20 +15543,20 @@
         <v>1908</v>
       </c>
       <c r="B1177" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B1178" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B1179" t="s">
         <v>1911</v>
@@ -15572,8 +15578,16 @@
         <v>1915</v>
       </c>
     </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1917</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1921">
   <si>
     <t>en</t>
   </si>
@@ -3560,6 +3560,9 @@
   </si>
   <si>
     <t>Sterfelijke Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6123,7 +6126,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12061,20 +12064,20 @@
         <v>1181</v>
       </c>
       <c r="B741" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B742" t="s">
         <v>1183</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B743" t="s">
         <v>1185</v>
@@ -12101,92 +12104,92 @@
         <v>1188</v>
       </c>
       <c r="B746" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B747" t="s">
         <v>1190</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B748" t="s">
         <v>1192</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B749" t="s">
         <v>1194</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B750" t="s">
         <v>1196</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B751" t="s">
         <v>1198</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B752" t="s">
         <v>1200</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B753" t="s">
         <v>1202</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B754" t="s">
         <v>1204</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B755" t="s">
         <v>1206</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B756" t="s">
         <v>1208</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B757" t="s">
         <v>1210</v>
@@ -12197,12 +12200,12 @@
         <v>1211</v>
       </c>
       <c r="B758" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B759" t="s">
         <v>1213</v>
@@ -12221,44 +12224,44 @@
         <v>1215</v>
       </c>
       <c r="B761" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B762" t="s">
         <v>1217</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B763" t="s">
         <v>1219</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B764" t="s">
         <v>1221</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B765" t="s">
         <v>1223</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B766" t="s">
         <v>1225</v>
@@ -12269,36 +12272,36 @@
         <v>1226</v>
       </c>
       <c r="B767" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B768" t="s">
         <v>1228</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B769" t="s">
         <v>1230</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B770" t="s">
         <v>1232</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B771" t="s">
         <v>1234</v>
@@ -12309,68 +12312,68 @@
         <v>1235</v>
       </c>
       <c r="B772" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B773" t="s">
         <v>1237</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B774" t="s">
         <v>1239</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B775" t="s">
         <v>1241</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B776" t="s">
         <v>1243</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B777" t="s">
         <v>1245</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B778" t="s">
         <v>1247</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B779" t="s">
         <v>1249</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B780" t="s">
         <v>1251</v>
@@ -12389,28 +12392,28 @@
         <v>1253</v>
       </c>
       <c r="B782" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B783" t="s">
         <v>1255</v>
-      </c>
-      <c r="B783" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B784" t="s">
         <v>1257</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B785" t="s">
         <v>1259</v>
@@ -12421,12 +12424,12 @@
         <v>1260</v>
       </c>
       <c r="B786" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B787" t="s">
         <v>1262</v>
@@ -12485,12 +12488,12 @@
         <v>1269</v>
       </c>
       <c r="B794" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B795" t="s">
         <v>1271</v>
@@ -12509,60 +12512,60 @@
         <v>1273</v>
       </c>
       <c r="B797" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B798" t="s">
         <v>1275</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B799" t="s">
         <v>1277</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B800" t="s">
         <v>1279</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B801" t="s">
         <v>1281</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B802" t="s">
         <v>1283</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B803" t="s">
         <v>1285</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B804" t="s">
         <v>1287</v>
@@ -12589,76 +12592,76 @@
         <v>1290</v>
       </c>
       <c r="B807" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B808" t="s">
         <v>1292</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B809" t="s">
         <v>1294</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B810" t="s">
         <v>1296</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B811" t="s">
         <v>1298</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B812" t="s">
         <v>1300</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B813" t="s">
         <v>1302</v>
-      </c>
-      <c r="B813" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B814" t="s">
         <v>1304</v>
-      </c>
-      <c r="B814" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B815" t="s">
         <v>1306</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B816" t="s">
         <v>1308</v>
@@ -12669,12 +12672,12 @@
         <v>1309</v>
       </c>
       <c r="B817" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B818" t="s">
         <v>1311</v>
@@ -12685,28 +12688,28 @@
         <v>1312</v>
       </c>
       <c r="B819" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B820" t="s">
         <v>1314</v>
-      </c>
-      <c r="B820" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B821" t="s">
         <v>1316</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B822" t="s">
         <v>1318</v>
@@ -12717,12 +12720,12 @@
         <v>1319</v>
       </c>
       <c r="B823" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B824" t="s">
         <v>1321</v>
@@ -12733,12 +12736,12 @@
         <v>1322</v>
       </c>
       <c r="B825" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B826" t="s">
         <v>1324</v>
@@ -12749,7 +12752,7 @@
         <v>1325</v>
       </c>
       <c r="B827" t="s">
-        <v>300</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -12757,12 +12760,12 @@
         <v>1326</v>
       </c>
       <c r="B828" t="s">
-        <v>1327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B829" t="s">
         <v>1328</v>
@@ -12789,60 +12792,60 @@
         <v>1331</v>
       </c>
       <c r="B832" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B833" t="s">
         <v>1333</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B834" t="s">
         <v>1335</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B835" t="s">
         <v>1337</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B836" t="s">
         <v>1339</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B837" t="s">
         <v>1341</v>
-      </c>
-      <c r="B837" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B838" t="s">
         <v>1343</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B839" t="s">
         <v>1345</v>
@@ -12877,84 +12880,84 @@
         <v>1349</v>
       </c>
       <c r="B843" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B844" t="s">
         <v>1351</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B845" t="s">
         <v>1353</v>
-      </c>
-      <c r="B845" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B846" t="s">
         <v>1355</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B847" t="s">
         <v>1357</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B848" t="s">
         <v>1359</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B849" t="s">
         <v>1361</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B850" t="s">
         <v>1363</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B851" t="s">
         <v>1365</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B852" t="s">
         <v>1367</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B853" t="s">
         <v>1369</v>
@@ -12965,20 +12968,20 @@
         <v>1370</v>
       </c>
       <c r="B854" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B855" t="s">
         <v>1372</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B856" t="s">
         <v>1374</v>
@@ -13013,12 +13016,12 @@
         <v>1378</v>
       </c>
       <c r="B860" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B861" t="s">
         <v>1380</v>
@@ -13029,20 +13032,20 @@
         <v>1381</v>
       </c>
       <c r="B862" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B863" t="s">
         <v>1383</v>
-      </c>
-      <c r="B863" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B864" t="s">
         <v>1385</v>
@@ -13053,52 +13056,52 @@
         <v>1386</v>
       </c>
       <c r="B865" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B866" t="s">
         <v>1388</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B867" t="s">
         <v>1390</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B868" t="s">
         <v>1392</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B869" t="s">
         <v>1394</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B870" t="s">
         <v>1396</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B871" t="s">
         <v>1398</v>
@@ -13109,28 +13112,28 @@
         <v>1399</v>
       </c>
       <c r="B872" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B873" t="s">
         <v>1401</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B874" t="s">
         <v>1403</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B875" t="s">
         <v>1405</v>
@@ -13149,28 +13152,28 @@
         <v>1407</v>
       </c>
       <c r="B877" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B878" t="s">
         <v>1409</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B879" t="s">
         <v>1411</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B880" t="s">
         <v>1413</v>
@@ -13181,12 +13184,12 @@
         <v>1414</v>
       </c>
       <c r="B881" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B882" t="s">
         <v>1416</v>
@@ -13221,28 +13224,28 @@
         <v>1420</v>
       </c>
       <c r="B886" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B887" t="s">
         <v>1422</v>
-      </c>
-      <c r="B887" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B888" t="s">
         <v>1424</v>
-      </c>
-      <c r="B888" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B889" t="s">
         <v>1426</v>
@@ -13253,36 +13256,36 @@
         <v>1427</v>
       </c>
       <c r="B890" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B891" t="s">
         <v>1429</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B892" t="s">
         <v>1431</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B893" t="s">
         <v>1433</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B894" t="s">
         <v>1435</v>
@@ -13293,52 +13296,52 @@
         <v>1436</v>
       </c>
       <c r="B895" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B896" t="s">
         <v>1438</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B897" t="s">
         <v>1440</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B898" t="s">
         <v>1442</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B899" t="s">
         <v>1444</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B900" t="s">
         <v>1446</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B901" t="s">
         <v>1448</v>
@@ -13397,28 +13400,28 @@
         <v>1455</v>
       </c>
       <c r="B908" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B909" t="s">
         <v>1457</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B910" t="s">
         <v>1459</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B911" t="s">
         <v>1461</v>
@@ -13445,44 +13448,44 @@
         <v>1464</v>
       </c>
       <c r="B914" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B915" t="s">
         <v>1466</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B916" t="s">
         <v>1468</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B917" t="s">
         <v>1470</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B918" t="s">
         <v>1472</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B919" t="s">
         <v>1474</v>
@@ -13501,36 +13504,36 @@
         <v>1476</v>
       </c>
       <c r="B921" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B922" t="s">
         <v>1478</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B923" t="s">
         <v>1480</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B924" t="s">
         <v>1482</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B925" t="s">
         <v>1484</v>
@@ -13541,20 +13544,20 @@
         <v>1485</v>
       </c>
       <c r="B926" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B927" t="s">
         <v>1487</v>
-      </c>
-      <c r="B927" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B928" t="s">
         <v>1489</v>
@@ -13565,76 +13568,76 @@
         <v>1490</v>
       </c>
       <c r="B929" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B930" t="s">
         <v>1492</v>
-      </c>
-      <c r="B930" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B931" t="s">
         <v>1494</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B932" t="s">
         <v>1496</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B933" t="s">
         <v>1498</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B934" t="s">
         <v>1500</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B935" t="s">
         <v>1502</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B936" t="s">
         <v>1504</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B937" t="s">
         <v>1506</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B938" t="s">
         <v>1508</v>
@@ -13661,28 +13664,28 @@
         <v>1511</v>
       </c>
       <c r="B941" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B942" t="s">
         <v>1513</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B943" t="s">
         <v>1515</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B944" t="s">
         <v>1517</v>
@@ -13701,12 +13704,12 @@
         <v>1519</v>
       </c>
       <c r="B946" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B947" t="s">
         <v>1521</v>
@@ -13725,36 +13728,36 @@
         <v>1523</v>
       </c>
       <c r="B949" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B950" t="s">
         <v>1525</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B951" t="s">
         <v>1527</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B952" t="s">
         <v>1529</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B953" t="s">
         <v>1531</v>
@@ -13773,60 +13776,60 @@
         <v>1533</v>
       </c>
       <c r="B955" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B956" t="s">
         <v>1535</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B957" t="s">
         <v>1537</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B958" t="s">
         <v>1539</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B959" t="s">
         <v>1541</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B960" t="s">
         <v>1543</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B961" t="s">
         <v>1545</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B962" t="s">
         <v>1547</v>
@@ -13837,108 +13840,108 @@
         <v>1548</v>
       </c>
       <c r="B963" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B964" t="s">
         <v>1550</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B965" t="s">
         <v>1552</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B966" t="s">
         <v>1554</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B967" t="s">
         <v>1556</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B968" t="s">
         <v>1558</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B969" t="s">
         <v>1560</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B970" t="s">
         <v>1562</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B971" t="s">
         <v>1564</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B972" t="s">
         <v>1566</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B973" t="s">
         <v>1568</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B974" t="s">
         <v>1570</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B975" t="s">
         <v>1572</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B976" t="s">
         <v>1574</v>
@@ -13957,20 +13960,20 @@
         <v>1576</v>
       </c>
       <c r="B978" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B979" t="s">
         <v>1578</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B980" t="s">
         <v>1580</v>
@@ -14029,28 +14032,28 @@
         <v>1587</v>
       </c>
       <c r="B987" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B988" t="s">
         <v>1589</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B989" t="s">
         <v>1591</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B990" t="s">
         <v>1593</v>
@@ -14061,20 +14064,20 @@
         <v>1594</v>
       </c>
       <c r="B991" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B992" t="s">
         <v>1596</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B993" t="s">
         <v>1598</v>
@@ -14093,20 +14096,20 @@
         <v>1600</v>
       </c>
       <c r="B995" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B996" t="s">
         <v>1602</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B997" t="s">
         <v>1604</v>
@@ -14117,20 +14120,20 @@
         <v>1605</v>
       </c>
       <c r="B998" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B999" t="s">
         <v>1607</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1000" t="s">
         <v>1609</v>
@@ -14165,12 +14168,12 @@
         <v>1613</v>
       </c>
       <c r="B1004" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B1005" t="s">
         <v>1615</v>
@@ -14205,36 +14208,36 @@
         <v>1619</v>
       </c>
       <c r="B1009" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1621</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1011" t="s">
         <v>1623</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1012" t="s">
         <v>1625</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B1013" t="s">
         <v>1627</v>
@@ -14253,20 +14256,20 @@
         <v>1629</v>
       </c>
       <c r="B1015" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1631</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1017" t="s">
         <v>1633</v>
@@ -14277,28 +14280,28 @@
         <v>1634</v>
       </c>
       <c r="B1018" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1636</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1638</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1021" t="s">
         <v>1640</v>
@@ -14309,12 +14312,12 @@
         <v>1641</v>
       </c>
       <c r="B1022" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1023" t="s">
         <v>1643</v>
@@ -14333,20 +14336,20 @@
         <v>1645</v>
       </c>
       <c r="B1025" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1026" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1027" t="s">
         <v>1649</v>
@@ -14373,12 +14376,12 @@
         <v>1652</v>
       </c>
       <c r="B1030" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1031" t="s">
         <v>1654</v>
@@ -14397,12 +14400,12 @@
         <v>1656</v>
       </c>
       <c r="B1033" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1034" t="s">
         <v>1658</v>
@@ -14413,84 +14416,84 @@
         <v>1659</v>
       </c>
       <c r="B1035" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1661</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1663</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1038" t="s">
         <v>1665</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1667</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1045" t="s">
         <v>1679</v>
@@ -14501,196 +14504,196 @@
         <v>1680</v>
       </c>
       <c r="B1046" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1047" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1688</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1690</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1692</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1694</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1696</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1698</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1700</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1057" t="s">
         <v>1702</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1704</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1706</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1708</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1710</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1712</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1714</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1716</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1718</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1720</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1722</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1724</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1069" t="s">
         <v>1726</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1070" t="s">
         <v>1728</v>
@@ -14701,20 +14704,20 @@
         <v>1729</v>
       </c>
       <c r="B1071" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1072" t="s">
         <v>1731</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1073" t="s">
         <v>1733</v>
@@ -14733,36 +14736,36 @@
         <v>1735</v>
       </c>
       <c r="B1075" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1076" t="s">
         <v>1737</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1077" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1741</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1079" t="s">
         <v>1743</v>
@@ -14773,12 +14776,12 @@
         <v>1744</v>
       </c>
       <c r="B1080" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B1081" t="s">
         <v>1746</v>
@@ -14789,52 +14792,52 @@
         <v>1747</v>
       </c>
       <c r="B1082" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1083" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1088" t="s">
         <v>1759</v>
@@ -14845,7 +14848,7 @@
         <v>1760</v>
       </c>
       <c r="B1089" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -14853,44 +14856,44 @@
         <v>1761</v>
       </c>
       <c r="B1090" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1763</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1094" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1095" t="s">
         <v>1771</v>
@@ -14901,20 +14904,20 @@
         <v>1772</v>
       </c>
       <c r="B1096" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1097" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1098" t="s">
         <v>1776</v>
@@ -14925,12 +14928,12 @@
         <v>1777</v>
       </c>
       <c r="B1099" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1100" t="s">
         <v>1779</v>
@@ -14949,212 +14952,212 @@
         <v>1781</v>
       </c>
       <c r="B1102" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1789</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1795</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1799</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1805</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1831</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1128" t="s">
         <v>1833</v>
@@ -15197,20 +15200,20 @@
         <v>1838</v>
       </c>
       <c r="B1133" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1134" t="s">
         <v>1840</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B1135" t="s">
         <v>1842</v>
@@ -15237,20 +15240,20 @@
         <v>1845</v>
       </c>
       <c r="B1138" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1847</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1140" t="s">
         <v>1849</v>
@@ -15261,52 +15264,52 @@
         <v>1850</v>
       </c>
       <c r="B1141" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1854</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1856</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B1147" t="s">
         <v>1862</v>
@@ -15317,52 +15320,52 @@
         <v>1863</v>
       </c>
       <c r="B1148" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1865</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1867</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1869</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1871</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1873</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1154" t="s">
         <v>1875</v>
@@ -15389,12 +15392,12 @@
         <v>1878</v>
       </c>
       <c r="B1157" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1158" t="s">
         <v>1880</v>
@@ -15405,12 +15408,12 @@
         <v>1881</v>
       </c>
       <c r="B1159" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1160" t="s">
         <v>1883</v>
@@ -15429,12 +15432,12 @@
         <v>1885</v>
       </c>
       <c r="B1162" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1163" t="s">
         <v>1887</v>
@@ -15469,20 +15472,20 @@
         <v>1891</v>
       </c>
       <c r="B1167" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1168" t="s">
         <v>1893</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1169" t="s">
         <v>1895</v>
@@ -15493,12 +15496,12 @@
         <v>1896</v>
       </c>
       <c r="B1170" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1171" t="s">
         <v>1898</v>
@@ -15509,36 +15512,36 @@
         <v>1899</v>
       </c>
       <c r="B1172" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1173" t="s">
         <v>1901</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1174" t="s">
         <v>1903</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1175" t="s">
         <v>1905</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1176" t="s">
         <v>1907</v>
@@ -15549,20 +15552,20 @@
         <v>1908</v>
       </c>
       <c r="B1177" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1178" t="s">
         <v>1910</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B1179" t="s">
         <v>1912</v>
@@ -15581,27 +15584,35 @@
         <v>1914</v>
       </c>
       <c r="B1181" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1182" t="s">
         <v>1916</v>
-      </c>
-      <c r="B1182" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1183" t="s">
         <v>1918</v>
       </c>
-      <c r="B1183" t="s">
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
         <v>1919</v>
       </c>
+      <c r="B1184" t="s">
+        <v>1920</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1923">
   <si>
     <t>en</t>
   </si>
@@ -1964,6 +1964,12 @@
   </si>
   <si>
     <t>Lettertype (Regenboog)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Lettertype (Rood gebeiteld zandsteen)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6126,7 +6132,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9560,12 +9566,12 @@
         <v>673</v>
       </c>
       <c r="B428" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B429" t="s">
         <v>675</v>
@@ -9576,12 +9582,12 @@
         <v>676</v>
       </c>
       <c r="B430" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B431" t="s">
         <v>678</v>
@@ -9616,12 +9622,12 @@
         <v>685</v>
       </c>
       <c r="B435" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B436" t="s">
         <v>687</v>
@@ -9656,12 +9662,12 @@
         <v>694</v>
       </c>
       <c r="B440" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B441" t="s">
         <v>696</v>
@@ -9680,12 +9686,12 @@
         <v>699</v>
       </c>
       <c r="B443" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B444" t="s">
         <v>701</v>
@@ -9696,12 +9702,12 @@
         <v>702</v>
       </c>
       <c r="B445" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B446" t="s">
         <v>704</v>
@@ -9712,12 +9718,12 @@
         <v>705</v>
       </c>
       <c r="B447" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B448" t="s">
         <v>707</v>
@@ -9728,12 +9734,12 @@
         <v>708</v>
       </c>
       <c r="B449" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B450" t="s">
         <v>710</v>
@@ -9752,12 +9758,12 @@
         <v>713</v>
       </c>
       <c r="B452" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B453" t="s">
         <v>715</v>
@@ -9776,20 +9782,20 @@
         <v>718</v>
       </c>
       <c r="B455" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B456" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B457" t="s">
         <v>721</v>
@@ -9816,52 +9822,52 @@
         <v>726</v>
       </c>
       <c r="B460" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B461" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B462" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B463" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B464" t="s">
-        <v>466</v>
+        <v>731</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B465" t="s">
-        <v>731</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B466" t="s">
         <v>733</v>
@@ -9880,52 +9886,52 @@
         <v>736</v>
       </c>
       <c r="B468" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B469" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B470" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B471" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B472" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B473" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B474" t="s">
         <v>743</v>
@@ -9936,12 +9942,12 @@
         <v>744</v>
       </c>
       <c r="B475" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B476" t="s">
         <v>746</v>
@@ -9960,12 +9966,12 @@
         <v>749</v>
       </c>
       <c r="B478" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B479" t="s">
         <v>751</v>
@@ -9976,12 +9982,12 @@
         <v>752</v>
       </c>
       <c r="B480" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B481" t="s">
         <v>754</v>
@@ -9992,20 +9998,20 @@
         <v>755</v>
       </c>
       <c r="B482" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B483" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B484" t="s">
         <v>758</v>
@@ -10016,36 +10022,36 @@
         <v>759</v>
       </c>
       <c r="B485" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B487" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B488" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B489" t="s">
         <v>764</v>
@@ -10200,20 +10206,20 @@
         <v>801</v>
       </c>
       <c r="B508" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B509" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B510" t="s">
         <v>804</v>
@@ -10224,12 +10230,12 @@
         <v>805</v>
       </c>
       <c r="B511" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B512" t="s">
         <v>807</v>
@@ -10280,20 +10286,20 @@
         <v>818</v>
       </c>
       <c r="B518" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B519" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B520" t="s">
         <v>821</v>
@@ -10320,12 +10326,12 @@
         <v>826</v>
       </c>
       <c r="B523" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B524" t="s">
         <v>828</v>
@@ -10376,12 +10382,12 @@
         <v>839</v>
       </c>
       <c r="B530" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B531" t="s">
         <v>841</v>
@@ -10400,12 +10406,12 @@
         <v>844</v>
       </c>
       <c r="B533" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B534" t="s">
         <v>846</v>
@@ -10424,36 +10430,36 @@
         <v>849</v>
       </c>
       <c r="B536" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B537" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B538" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B539" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B540" t="s">
         <v>854</v>
@@ -10488,20 +10494,20 @@
         <v>861</v>
       </c>
       <c r="B544" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B545" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B546" t="s">
         <v>864</v>
@@ -10512,12 +10518,12 @@
         <v>865</v>
       </c>
       <c r="B547" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B548" t="s">
         <v>867</v>
@@ -10528,12 +10534,12 @@
         <v>868</v>
       </c>
       <c r="B549" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B550" t="s">
         <v>870</v>
@@ -10560,12 +10566,12 @@
         <v>875</v>
       </c>
       <c r="B553" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B554" t="s">
         <v>877</v>
@@ -10624,20 +10630,20 @@
         <v>890</v>
       </c>
       <c r="B561" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B563" t="s">
         <v>893</v>
@@ -10664,12 +10670,12 @@
         <v>898</v>
       </c>
       <c r="B566" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B567" t="s">
         <v>900</v>
@@ -10688,12 +10694,12 @@
         <v>903</v>
       </c>
       <c r="B569" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B570" t="s">
         <v>905</v>
@@ -10720,28 +10726,28 @@
         <v>910</v>
       </c>
       <c r="B573" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B576" t="s">
         <v>914</v>
@@ -10752,12 +10758,12 @@
         <v>915</v>
       </c>
       <c r="B577" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B578" t="s">
         <v>917</v>
@@ -10776,12 +10782,12 @@
         <v>920</v>
       </c>
       <c r="B580" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B581" t="s">
         <v>922</v>
@@ -10792,20 +10798,20 @@
         <v>923</v>
       </c>
       <c r="B582" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B583" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B584" t="s">
         <v>926</v>
@@ -10864,12 +10870,12 @@
         <v>939</v>
       </c>
       <c r="B591" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B592" t="s">
         <v>941</v>
@@ -10936,12 +10942,12 @@
         <v>956</v>
       </c>
       <c r="B600" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B601" t="s">
         <v>958</v>
@@ -10952,28 +10958,28 @@
         <v>959</v>
       </c>
       <c r="B602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B603" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B604" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B605" t="s">
         <v>963</v>
@@ -11000,12 +11006,12 @@
         <v>968</v>
       </c>
       <c r="B608" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B609" t="s">
         <v>970</v>
@@ -11016,12 +11022,12 @@
         <v>971</v>
       </c>
       <c r="B610" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B611" t="s">
         <v>973</v>
@@ -11040,20 +11046,20 @@
         <v>976</v>
       </c>
       <c r="B613" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B614" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B615" t="s">
         <v>979</v>
@@ -11064,12 +11070,12 @@
         <v>980</v>
       </c>
       <c r="B616" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B617" t="s">
         <v>982</v>
@@ -11112,12 +11118,12 @@
         <v>991</v>
       </c>
       <c r="B622" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B623" t="s">
         <v>993</v>
@@ -11128,20 +11134,20 @@
         <v>994</v>
       </c>
       <c r="B624" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B625" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B626" t="s">
         <v>997</v>
@@ -11152,36 +11158,36 @@
         <v>998</v>
       </c>
       <c r="B627" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B628" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B629" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B630" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B631" t="s">
         <v>1003</v>
@@ -11192,20 +11198,20 @@
         <v>1004</v>
       </c>
       <c r="B632" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B633" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B634" t="s">
         <v>1007</v>
@@ -11216,28 +11222,28 @@
         <v>1008</v>
       </c>
       <c r="B635" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B636" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B637" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B638" t="s">
         <v>1012</v>
@@ -11248,36 +11254,36 @@
         <v>1013</v>
       </c>
       <c r="B639" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B640" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B641" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B643" t="s">
         <v>1018</v>
@@ -11312,12 +11318,12 @@
         <v>1025</v>
       </c>
       <c r="B647" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B648" t="s">
         <v>1027</v>
@@ -11328,12 +11334,12 @@
         <v>1028</v>
       </c>
       <c r="B649" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B650" t="s">
         <v>1030</v>
@@ -11344,12 +11350,12 @@
         <v>1031</v>
       </c>
       <c r="B651" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B652" t="s">
         <v>1033</v>
@@ -11376,12 +11382,12 @@
         <v>1038</v>
       </c>
       <c r="B655" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B656" t="s">
         <v>1040</v>
@@ -11424,12 +11430,12 @@
         <v>1049</v>
       </c>
       <c r="B661" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B662" t="s">
         <v>1051</v>
@@ -11440,28 +11446,28 @@
         <v>1052</v>
       </c>
       <c r="B663" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B664" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B665" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B666" t="s">
         <v>1056</v>
@@ -11496,12 +11502,12 @@
         <v>1063</v>
       </c>
       <c r="B670" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B671" t="s">
         <v>1065</v>
@@ -11544,12 +11550,12 @@
         <v>1074</v>
       </c>
       <c r="B676" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B677" t="s">
         <v>1076</v>
@@ -11576,20 +11582,20 @@
         <v>1081</v>
       </c>
       <c r="B680" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B681" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B682" t="s">
         <v>1084</v>
@@ -11648,12 +11654,12 @@
         <v>1097</v>
       </c>
       <c r="B689" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B690" t="s">
         <v>1099</v>
@@ -11672,12 +11678,12 @@
         <v>1102</v>
       </c>
       <c r="B692" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B693" t="s">
         <v>1104</v>
@@ -11720,12 +11726,12 @@
         <v>1113</v>
       </c>
       <c r="B698" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B699" t="s">
         <v>1115</v>
@@ -11736,20 +11742,20 @@
         <v>1116</v>
       </c>
       <c r="B700" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B702" t="s">
         <v>1119</v>
@@ -11760,76 +11766,76 @@
         <v>1120</v>
       </c>
       <c r="B703" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B706" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B707" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B708" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B709" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B710" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B711" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B712" t="s">
         <v>1130</v>
@@ -11888,12 +11894,12 @@
         <v>1143</v>
       </c>
       <c r="B719" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B720" t="s">
         <v>1145</v>
@@ -11968,12 +11974,12 @@
         <v>1162</v>
       </c>
       <c r="B729" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B730" t="s">
         <v>1164</v>
@@ -12000,12 +12006,12 @@
         <v>1169</v>
       </c>
       <c r="B733" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B734" t="s">
         <v>1171</v>
@@ -12016,12 +12022,12 @@
         <v>1172</v>
       </c>
       <c r="B735" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B736" t="s">
         <v>1174</v>
@@ -12040,20 +12046,20 @@
         <v>1177</v>
       </c>
       <c r="B738" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B739" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B740" t="s">
         <v>1180</v>
@@ -12064,12 +12070,12 @@
         <v>1181</v>
       </c>
       <c r="B741" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B742" t="s">
         <v>1183</v>
@@ -12088,28 +12094,28 @@
         <v>1186</v>
       </c>
       <c r="B744" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B746" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B747" t="s">
         <v>1190</v>
@@ -12200,12 +12206,12 @@
         <v>1211</v>
       </c>
       <c r="B758" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B759" t="s">
         <v>1213</v>
@@ -12216,20 +12222,20 @@
         <v>1214</v>
       </c>
       <c r="B760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B761" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B762" t="s">
         <v>1217</v>
@@ -12272,12 +12278,12 @@
         <v>1226</v>
       </c>
       <c r="B767" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B768" t="s">
         <v>1228</v>
@@ -12312,12 +12318,12 @@
         <v>1235</v>
       </c>
       <c r="B772" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B773" t="s">
         <v>1237</v>
@@ -12384,20 +12390,20 @@
         <v>1252</v>
       </c>
       <c r="B781" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B782" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B783" t="s">
         <v>1255</v>
@@ -12424,12 +12430,12 @@
         <v>1260</v>
       </c>
       <c r="B786" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B787" t="s">
         <v>1262</v>
@@ -12440,60 +12446,60 @@
         <v>1263</v>
       </c>
       <c r="B788" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B789" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B794" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B795" t="s">
         <v>1271</v>
@@ -12504,20 +12510,20 @@
         <v>1272</v>
       </c>
       <c r="B796" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B797" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B798" t="s">
         <v>1275</v>
@@ -12576,28 +12582,28 @@
         <v>1288</v>
       </c>
       <c r="B805" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B807" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B808" t="s">
         <v>1292</v>
@@ -12672,12 +12678,12 @@
         <v>1309</v>
       </c>
       <c r="B817" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B818" t="s">
         <v>1311</v>
@@ -12688,12 +12694,12 @@
         <v>1312</v>
       </c>
       <c r="B819" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B820" t="s">
         <v>1314</v>
@@ -12720,12 +12726,12 @@
         <v>1319</v>
       </c>
       <c r="B823" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B824" t="s">
         <v>1321</v>
@@ -12736,12 +12742,12 @@
         <v>1322</v>
       </c>
       <c r="B825" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B826" t="s">
         <v>1324</v>
@@ -12752,23 +12758,23 @@
         <v>1325</v>
       </c>
       <c r="B827" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B828" t="s">
-        <v>300</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B829" t="s">
-        <v>1328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -12776,28 +12782,28 @@
         <v>1329</v>
       </c>
       <c r="B830" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B831" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B832" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B833" t="s">
         <v>1333</v>
@@ -12856,36 +12862,36 @@
         <v>1346</v>
       </c>
       <c r="B840" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B841" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B842" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B843" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B844" t="s">
         <v>1351</v>
@@ -12968,12 +12974,12 @@
         <v>1370</v>
       </c>
       <c r="B854" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B855" t="s">
         <v>1372</v>
@@ -12992,36 +12998,36 @@
         <v>1375</v>
       </c>
       <c r="B857" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B858" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B859" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B860" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B861" t="s">
         <v>1380</v>
@@ -13032,12 +13038,12 @@
         <v>1381</v>
       </c>
       <c r="B862" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B863" t="s">
         <v>1383</v>
@@ -13056,12 +13062,12 @@
         <v>1386</v>
       </c>
       <c r="B865" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B866" t="s">
         <v>1388</v>
@@ -13112,12 +13118,12 @@
         <v>1399</v>
       </c>
       <c r="B872" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B873" t="s">
         <v>1401</v>
@@ -13144,20 +13150,20 @@
         <v>1406</v>
       </c>
       <c r="B876" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B877" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B878" t="s">
         <v>1409</v>
@@ -13184,12 +13190,12 @@
         <v>1414</v>
       </c>
       <c r="B881" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B882" t="s">
         <v>1416</v>
@@ -13200,36 +13206,36 @@
         <v>1417</v>
       </c>
       <c r="B883" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B884" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B885" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B886" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B887" t="s">
         <v>1422</v>
@@ -13256,12 +13262,12 @@
         <v>1427</v>
       </c>
       <c r="B890" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B891" t="s">
         <v>1429</v>
@@ -13296,12 +13302,12 @@
         <v>1436</v>
       </c>
       <c r="B895" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B896" t="s">
         <v>1438</v>
@@ -13352,60 +13358,60 @@
         <v>1449</v>
       </c>
       <c r="B902" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B903" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B904" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B905" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B906" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B907" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B908" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B909" t="s">
         <v>1457</v>
@@ -13432,28 +13438,28 @@
         <v>1462</v>
       </c>
       <c r="B912" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B913" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B914" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B915" t="s">
         <v>1466</v>
@@ -13496,20 +13502,20 @@
         <v>1475</v>
       </c>
       <c r="B920" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B921" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B922" t="s">
         <v>1478</v>
@@ -13544,12 +13550,12 @@
         <v>1485</v>
       </c>
       <c r="B926" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B927" t="s">
         <v>1487</v>
@@ -13568,12 +13574,12 @@
         <v>1490</v>
       </c>
       <c r="B929" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B930" t="s">
         <v>1492</v>
@@ -13648,28 +13654,28 @@
         <v>1509</v>
       </c>
       <c r="B939" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B940" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B941" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B942" t="s">
         <v>1513</v>
@@ -13696,20 +13702,20 @@
         <v>1518</v>
       </c>
       <c r="B945" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B946" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B947" t="s">
         <v>1521</v>
@@ -13720,20 +13726,20 @@
         <v>1522</v>
       </c>
       <c r="B948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B949" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B950" t="s">
         <v>1525</v>
@@ -13768,20 +13774,20 @@
         <v>1532</v>
       </c>
       <c r="B954" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B955" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B956" t="s">
         <v>1535</v>
@@ -13840,12 +13846,12 @@
         <v>1548</v>
       </c>
       <c r="B963" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B964" t="s">
         <v>1550</v>
@@ -13952,20 +13958,20 @@
         <v>1575</v>
       </c>
       <c r="B977" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B978" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B979" t="s">
         <v>1578</v>
@@ -13984,60 +13990,60 @@
         <v>1581</v>
       </c>
       <c r="B981" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B982" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B983" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B984" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B985" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B986" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B987" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B988" t="s">
         <v>1589</v>
@@ -14064,12 +14070,12 @@
         <v>1594</v>
       </c>
       <c r="B991" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B992" t="s">
         <v>1596</v>
@@ -14088,20 +14094,20 @@
         <v>1599</v>
       </c>
       <c r="B994" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B995" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B996" t="s">
         <v>1602</v>
@@ -14120,12 +14126,12 @@
         <v>1605</v>
       </c>
       <c r="B998" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B999" t="s">
         <v>1607</v>
@@ -14144,36 +14150,36 @@
         <v>1610</v>
       </c>
       <c r="B1001" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1002" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1003" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1004" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1005" t="s">
         <v>1615</v>
@@ -14184,36 +14190,36 @@
         <v>1616</v>
       </c>
       <c r="B1006" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1007" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1008" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1009" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1010" t="s">
         <v>1621</v>
@@ -14248,20 +14254,20 @@
         <v>1628</v>
       </c>
       <c r="B1014" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1015" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1016" t="s">
         <v>1631</v>
@@ -14280,12 +14286,12 @@
         <v>1634</v>
       </c>
       <c r="B1018" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1019" t="s">
         <v>1636</v>
@@ -14312,12 +14318,12 @@
         <v>1641</v>
       </c>
       <c r="B1022" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1023" t="s">
         <v>1643</v>
@@ -14328,20 +14334,20 @@
         <v>1644</v>
       </c>
       <c r="B1024" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1025" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1026" t="s">
         <v>1647</v>
@@ -14360,28 +14366,28 @@
         <v>1650</v>
       </c>
       <c r="B1028" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1029" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1030" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1031" t="s">
         <v>1654</v>
@@ -14392,20 +14398,20 @@
         <v>1655</v>
       </c>
       <c r="B1032" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1033" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1034" t="s">
         <v>1658</v>
@@ -14416,12 +14422,12 @@
         <v>1659</v>
       </c>
       <c r="B1035" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1036" t="s">
         <v>1661</v>
@@ -14504,12 +14510,12 @@
         <v>1680</v>
       </c>
       <c r="B1046" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1047" t="s">
         <v>1682</v>
@@ -14704,12 +14710,12 @@
         <v>1729</v>
       </c>
       <c r="B1071" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1072" t="s">
         <v>1731</v>
@@ -14728,20 +14734,20 @@
         <v>1734</v>
       </c>
       <c r="B1074" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1075" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1076" t="s">
         <v>1737</v>
@@ -14776,12 +14782,12 @@
         <v>1744</v>
       </c>
       <c r="B1080" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1081" t="s">
         <v>1746</v>
@@ -14792,12 +14798,12 @@
         <v>1747</v>
       </c>
       <c r="B1082" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1083" t="s">
         <v>1749</v>
@@ -14848,23 +14854,23 @@
         <v>1760</v>
       </c>
       <c r="B1089" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1090" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1762</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -14904,12 +14910,12 @@
         <v>1772</v>
       </c>
       <c r="B1096" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1097" t="s">
         <v>1774</v>
@@ -14928,12 +14934,12 @@
         <v>1777</v>
       </c>
       <c r="B1099" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1100" t="s">
         <v>1779</v>
@@ -14944,20 +14950,20 @@
         <v>1780</v>
       </c>
       <c r="B1101" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1102" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1103" t="s">
         <v>1783</v>
@@ -15168,44 +15174,44 @@
         <v>1834</v>
       </c>
       <c r="B1129" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1130" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1131" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1132" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1133" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1134" t="s">
         <v>1840</v>
@@ -15224,28 +15230,28 @@
         <v>1843</v>
       </c>
       <c r="B1136" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1137" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1138" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1139" t="s">
         <v>1847</v>
@@ -15264,12 +15270,12 @@
         <v>1850</v>
       </c>
       <c r="B1141" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1142" t="s">
         <v>1852</v>
@@ -15320,12 +15326,12 @@
         <v>1863</v>
       </c>
       <c r="B1148" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1149" t="s">
         <v>1865</v>
@@ -15376,28 +15382,28 @@
         <v>1876</v>
       </c>
       <c r="B1155" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1156" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1157" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1158" t="s">
         <v>1880</v>
@@ -15408,12 +15414,12 @@
         <v>1881</v>
       </c>
       <c r="B1159" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1160" t="s">
         <v>1883</v>
@@ -15424,20 +15430,20 @@
         <v>1884</v>
       </c>
       <c r="B1161" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1162" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1163" t="s">
         <v>1887</v>
@@ -15448,36 +15454,36 @@
         <v>1888</v>
       </c>
       <c r="B1164" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1165" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1166" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1167" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1168" t="s">
         <v>1893</v>
@@ -15496,12 +15502,12 @@
         <v>1896</v>
       </c>
       <c r="B1170" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1171" t="s">
         <v>1898</v>
@@ -15512,12 +15518,12 @@
         <v>1899</v>
       </c>
       <c r="B1172" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1173" t="s">
         <v>1901</v>
@@ -15552,12 +15558,12 @@
         <v>1908</v>
       </c>
       <c r="B1177" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B1178" t="s">
         <v>1910</v>
@@ -15576,20 +15582,20 @@
         <v>1913</v>
       </c>
       <c r="B1180" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1181" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B1182" t="s">
         <v>1916</v>
@@ -15611,8 +15617,16 @@
         <v>1920</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1922</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1925">
   <si>
     <t>en</t>
   </si>
@@ -5354,6 +5354,12 @@
   </si>
   <si>
     <t>Schemerbos</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Verwrongen Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6132,7 +6138,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14942,12 +14948,12 @@
         <v>1779</v>
       </c>
       <c r="B1100" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1101" t="s">
         <v>1781</v>
@@ -14958,20 +14964,20 @@
         <v>1782</v>
       </c>
       <c r="B1102" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1103" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1104" t="s">
         <v>1785</v>
@@ -15182,44 +15188,44 @@
         <v>1836</v>
       </c>
       <c r="B1130" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1131" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1132" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1133" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1134" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1135" t="s">
         <v>1842</v>
@@ -15238,28 +15244,28 @@
         <v>1845</v>
       </c>
       <c r="B1137" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1138" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1139" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1140" t="s">
         <v>1849</v>
@@ -15278,12 +15284,12 @@
         <v>1852</v>
       </c>
       <c r="B1142" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1143" t="s">
         <v>1854</v>
@@ -15334,12 +15340,12 @@
         <v>1865</v>
       </c>
       <c r="B1149" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1150" t="s">
         <v>1867</v>
@@ -15390,28 +15396,28 @@
         <v>1878</v>
       </c>
       <c r="B1156" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1157" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1158" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1159" t="s">
         <v>1882</v>
@@ -15422,12 +15428,12 @@
         <v>1883</v>
       </c>
       <c r="B1160" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1161" t="s">
         <v>1885</v>
@@ -15438,20 +15444,20 @@
         <v>1886</v>
       </c>
       <c r="B1162" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1163" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1164" t="s">
         <v>1889</v>
@@ -15462,36 +15468,36 @@
         <v>1890</v>
       </c>
       <c r="B1165" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1166" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1167" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1168" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1169" t="s">
         <v>1895</v>
@@ -15510,12 +15516,12 @@
         <v>1898</v>
       </c>
       <c r="B1171" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1172" t="s">
         <v>1900</v>
@@ -15526,12 +15532,12 @@
         <v>1901</v>
       </c>
       <c r="B1173" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1174" t="s">
         <v>1903</v>
@@ -15566,12 +15572,12 @@
         <v>1910</v>
       </c>
       <c r="B1178" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1179" t="s">
         <v>1912</v>
@@ -15590,20 +15596,20 @@
         <v>1915</v>
       </c>
       <c r="B1181" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1182" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1183" t="s">
         <v>1918</v>
@@ -15625,8 +15631,16 @@
         <v>1922</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1924</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1927">
   <si>
     <t>en</t>
   </si>
@@ -2795,6 +2795,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutaties) Label</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6138,7 +6144,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10820,12 +10826,12 @@
         <v>926</v>
       </c>
       <c r="B584" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B585" t="s">
         <v>928</v>
@@ -10884,12 +10890,12 @@
         <v>941</v>
       </c>
       <c r="B592" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B593" t="s">
         <v>943</v>
@@ -10956,12 +10962,12 @@
         <v>958</v>
       </c>
       <c r="B601" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B602" t="s">
         <v>960</v>
@@ -10972,28 +10978,28 @@
         <v>961</v>
       </c>
       <c r="B603" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B604" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B605" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B606" t="s">
         <v>965</v>
@@ -11020,12 +11026,12 @@
         <v>970</v>
       </c>
       <c r="B609" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B610" t="s">
         <v>972</v>
@@ -11036,12 +11042,12 @@
         <v>973</v>
       </c>
       <c r="B611" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B612" t="s">
         <v>975</v>
@@ -11060,20 +11066,20 @@
         <v>978</v>
       </c>
       <c r="B614" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B615" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B616" t="s">
         <v>981</v>
@@ -11084,12 +11090,12 @@
         <v>982</v>
       </c>
       <c r="B617" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B618" t="s">
         <v>984</v>
@@ -11132,12 +11138,12 @@
         <v>993</v>
       </c>
       <c r="B623" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B624" t="s">
         <v>995</v>
@@ -11148,20 +11154,20 @@
         <v>996</v>
       </c>
       <c r="B625" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B626" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B627" t="s">
         <v>999</v>
@@ -11172,36 +11178,36 @@
         <v>1000</v>
       </c>
       <c r="B628" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B629" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B630" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B631" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B632" t="s">
         <v>1005</v>
@@ -11212,20 +11218,20 @@
         <v>1006</v>
       </c>
       <c r="B633" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B634" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B635" t="s">
         <v>1009</v>
@@ -11236,28 +11242,28 @@
         <v>1010</v>
       </c>
       <c r="B636" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B637" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B638" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B639" t="s">
         <v>1014</v>
@@ -11268,36 +11274,36 @@
         <v>1015</v>
       </c>
       <c r="B640" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B641" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B642" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B643" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B644" t="s">
         <v>1020</v>
@@ -11332,12 +11338,12 @@
         <v>1027</v>
       </c>
       <c r="B648" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B649" t="s">
         <v>1029</v>
@@ -11348,12 +11354,12 @@
         <v>1030</v>
       </c>
       <c r="B650" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B651" t="s">
         <v>1032</v>
@@ -11364,12 +11370,12 @@
         <v>1033</v>
       </c>
       <c r="B652" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B653" t="s">
         <v>1035</v>
@@ -11396,12 +11402,12 @@
         <v>1040</v>
       </c>
       <c r="B656" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B657" t="s">
         <v>1042</v>
@@ -11444,12 +11450,12 @@
         <v>1051</v>
       </c>
       <c r="B662" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B663" t="s">
         <v>1053</v>
@@ -11460,28 +11466,28 @@
         <v>1054</v>
       </c>
       <c r="B664" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B665" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B666" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B667" t="s">
         <v>1058</v>
@@ -11516,12 +11522,12 @@
         <v>1065</v>
       </c>
       <c r="B671" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B672" t="s">
         <v>1067</v>
@@ -11564,12 +11570,12 @@
         <v>1076</v>
       </c>
       <c r="B677" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B678" t="s">
         <v>1078</v>
@@ -11596,20 +11602,20 @@
         <v>1083</v>
       </c>
       <c r="B681" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B682" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B683" t="s">
         <v>1086</v>
@@ -11668,12 +11674,12 @@
         <v>1099</v>
       </c>
       <c r="B690" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B691" t="s">
         <v>1101</v>
@@ -11692,12 +11698,12 @@
         <v>1104</v>
       </c>
       <c r="B693" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B694" t="s">
         <v>1106</v>
@@ -11740,12 +11746,12 @@
         <v>1115</v>
       </c>
       <c r="B699" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B700" t="s">
         <v>1117</v>
@@ -11756,20 +11762,20 @@
         <v>1118</v>
       </c>
       <c r="B701" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B702" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B703" t="s">
         <v>1121</v>
@@ -11780,76 +11786,76 @@
         <v>1122</v>
       </c>
       <c r="B704" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B705" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B706" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B707" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B708" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B709" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B710" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B711" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B712" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B713" t="s">
         <v>1132</v>
@@ -11908,12 +11914,12 @@
         <v>1145</v>
       </c>
       <c r="B720" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B721" t="s">
         <v>1147</v>
@@ -11988,12 +11994,12 @@
         <v>1164</v>
       </c>
       <c r="B730" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B731" t="s">
         <v>1166</v>
@@ -12020,12 +12026,12 @@
         <v>1171</v>
       </c>
       <c r="B734" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B735" t="s">
         <v>1173</v>
@@ -12036,12 +12042,12 @@
         <v>1174</v>
       </c>
       <c r="B736" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B737" t="s">
         <v>1176</v>
@@ -12060,20 +12066,20 @@
         <v>1179</v>
       </c>
       <c r="B739" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B740" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B741" t="s">
         <v>1182</v>
@@ -12084,12 +12090,12 @@
         <v>1183</v>
       </c>
       <c r="B742" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B743" t="s">
         <v>1185</v>
@@ -12108,28 +12114,28 @@
         <v>1188</v>
       </c>
       <c r="B745" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B746" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B747" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B748" t="s">
         <v>1192</v>
@@ -12220,12 +12226,12 @@
         <v>1213</v>
       </c>
       <c r="B759" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B760" t="s">
         <v>1215</v>
@@ -12236,20 +12242,20 @@
         <v>1216</v>
       </c>
       <c r="B761" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B762" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B763" t="s">
         <v>1219</v>
@@ -12292,12 +12298,12 @@
         <v>1228</v>
       </c>
       <c r="B768" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B769" t="s">
         <v>1230</v>
@@ -12332,12 +12338,12 @@
         <v>1237</v>
       </c>
       <c r="B773" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B774" t="s">
         <v>1239</v>
@@ -12404,20 +12410,20 @@
         <v>1254</v>
       </c>
       <c r="B782" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B783" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B784" t="s">
         <v>1257</v>
@@ -12444,12 +12450,12 @@
         <v>1262</v>
       </c>
       <c r="B787" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B788" t="s">
         <v>1264</v>
@@ -12460,60 +12466,60 @@
         <v>1265</v>
       </c>
       <c r="B789" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B790" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B791" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B792" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B793" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B794" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B795" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B796" t="s">
         <v>1273</v>
@@ -12524,20 +12530,20 @@
         <v>1274</v>
       </c>
       <c r="B797" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B798" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B799" t="s">
         <v>1277</v>
@@ -12596,28 +12602,28 @@
         <v>1290</v>
       </c>
       <c r="B806" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B807" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B808" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B809" t="s">
         <v>1294</v>
@@ -12692,12 +12698,12 @@
         <v>1311</v>
       </c>
       <c r="B818" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B819" t="s">
         <v>1313</v>
@@ -12708,12 +12714,12 @@
         <v>1314</v>
       </c>
       <c r="B820" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B821" t="s">
         <v>1316</v>
@@ -12740,12 +12746,12 @@
         <v>1321</v>
       </c>
       <c r="B824" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B825" t="s">
         <v>1323</v>
@@ -12756,12 +12762,12 @@
         <v>1324</v>
       </c>
       <c r="B826" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B827" t="s">
         <v>1326</v>
@@ -12772,23 +12778,23 @@
         <v>1327</v>
       </c>
       <c r="B828" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B829" t="s">
-        <v>300</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B830" t="s">
-        <v>1330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -12796,28 +12802,28 @@
         <v>1331</v>
       </c>
       <c r="B831" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B832" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B833" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B834" t="s">
         <v>1335</v>
@@ -12876,36 +12882,36 @@
         <v>1348</v>
       </c>
       <c r="B841" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B842" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B843" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B844" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B845" t="s">
         <v>1353</v>
@@ -12988,12 +12994,12 @@
         <v>1372</v>
       </c>
       <c r="B855" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B856" t="s">
         <v>1374</v>
@@ -13012,36 +13018,36 @@
         <v>1377</v>
       </c>
       <c r="B858" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B859" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B860" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B861" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B862" t="s">
         <v>1382</v>
@@ -13052,12 +13058,12 @@
         <v>1383</v>
       </c>
       <c r="B863" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B864" t="s">
         <v>1385</v>
@@ -13076,12 +13082,12 @@
         <v>1388</v>
       </c>
       <c r="B866" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B867" t="s">
         <v>1390</v>
@@ -13132,12 +13138,12 @@
         <v>1401</v>
       </c>
       <c r="B873" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B874" t="s">
         <v>1403</v>
@@ -13164,20 +13170,20 @@
         <v>1408</v>
       </c>
       <c r="B877" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B878" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B879" t="s">
         <v>1411</v>
@@ -13204,12 +13210,12 @@
         <v>1416</v>
       </c>
       <c r="B882" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B883" t="s">
         <v>1418</v>
@@ -13220,36 +13226,36 @@
         <v>1419</v>
       </c>
       <c r="B884" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B885" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B886" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B887" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B888" t="s">
         <v>1424</v>
@@ -13276,12 +13282,12 @@
         <v>1429</v>
       </c>
       <c r="B891" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B892" t="s">
         <v>1431</v>
@@ -13316,12 +13322,12 @@
         <v>1438</v>
       </c>
       <c r="B896" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B897" t="s">
         <v>1440</v>
@@ -13372,60 +13378,60 @@
         <v>1451</v>
       </c>
       <c r="B903" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B904" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B905" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B906" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B907" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B908" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B909" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B910" t="s">
         <v>1459</v>
@@ -13452,28 +13458,28 @@
         <v>1464</v>
       </c>
       <c r="B913" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B914" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B915" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B916" t="s">
         <v>1468</v>
@@ -13516,20 +13522,20 @@
         <v>1477</v>
       </c>
       <c r="B921" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B922" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B923" t="s">
         <v>1480</v>
@@ -13564,12 +13570,12 @@
         <v>1487</v>
       </c>
       <c r="B927" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B928" t="s">
         <v>1489</v>
@@ -13588,12 +13594,12 @@
         <v>1492</v>
       </c>
       <c r="B930" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B931" t="s">
         <v>1494</v>
@@ -13668,28 +13674,28 @@
         <v>1511</v>
       </c>
       <c r="B940" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B941" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B942" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B943" t="s">
         <v>1515</v>
@@ -13716,20 +13722,20 @@
         <v>1520</v>
       </c>
       <c r="B946" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B947" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B948" t="s">
         <v>1523</v>
@@ -13740,20 +13746,20 @@
         <v>1524</v>
       </c>
       <c r="B949" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B950" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B951" t="s">
         <v>1527</v>
@@ -13788,20 +13794,20 @@
         <v>1534</v>
       </c>
       <c r="B955" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B956" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B957" t="s">
         <v>1537</v>
@@ -13860,12 +13866,12 @@
         <v>1550</v>
       </c>
       <c r="B964" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B965" t="s">
         <v>1552</v>
@@ -13972,20 +13978,20 @@
         <v>1577</v>
       </c>
       <c r="B978" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B979" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B980" t="s">
         <v>1580</v>
@@ -14004,60 +14010,60 @@
         <v>1583</v>
       </c>
       <c r="B982" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B983" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B984" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B985" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B986" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B987" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B988" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B989" t="s">
         <v>1591</v>
@@ -14084,12 +14090,12 @@
         <v>1596</v>
       </c>
       <c r="B992" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B993" t="s">
         <v>1598</v>
@@ -14108,20 +14114,20 @@
         <v>1601</v>
       </c>
       <c r="B995" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B996" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B997" t="s">
         <v>1604</v>
@@ -14140,12 +14146,12 @@
         <v>1607</v>
       </c>
       <c r="B999" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1000" t="s">
         <v>1609</v>
@@ -14164,36 +14170,36 @@
         <v>1612</v>
       </c>
       <c r="B1002" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1003" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1004" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1005" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1006" t="s">
         <v>1617</v>
@@ -14204,36 +14210,36 @@
         <v>1618</v>
       </c>
       <c r="B1007" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1008" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1009" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1010" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1011" t="s">
         <v>1623</v>
@@ -14268,20 +14274,20 @@
         <v>1630</v>
       </c>
       <c r="B1015" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1016" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1017" t="s">
         <v>1633</v>
@@ -14300,12 +14306,12 @@
         <v>1636</v>
       </c>
       <c r="B1019" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1020" t="s">
         <v>1638</v>
@@ -14332,12 +14338,12 @@
         <v>1643</v>
       </c>
       <c r="B1023" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1024" t="s">
         <v>1645</v>
@@ -14348,20 +14354,20 @@
         <v>1646</v>
       </c>
       <c r="B1025" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1026" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1027" t="s">
         <v>1649</v>
@@ -14380,28 +14386,28 @@
         <v>1652</v>
       </c>
       <c r="B1029" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1030" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1031" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1032" t="s">
         <v>1656</v>
@@ -14412,20 +14418,20 @@
         <v>1657</v>
       </c>
       <c r="B1033" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1034" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1035" t="s">
         <v>1660</v>
@@ -14436,12 +14442,12 @@
         <v>1661</v>
       </c>
       <c r="B1036" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1037" t="s">
         <v>1663</v>
@@ -14524,12 +14530,12 @@
         <v>1682</v>
       </c>
       <c r="B1047" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1048" t="s">
         <v>1684</v>
@@ -14724,12 +14730,12 @@
         <v>1731</v>
       </c>
       <c r="B1072" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1073" t="s">
         <v>1733</v>
@@ -14748,20 +14754,20 @@
         <v>1736</v>
       </c>
       <c r="B1075" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1076" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1077" t="s">
         <v>1739</v>
@@ -14796,12 +14802,12 @@
         <v>1746</v>
       </c>
       <c r="B1081" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1082" t="s">
         <v>1748</v>
@@ -14812,12 +14818,12 @@
         <v>1749</v>
       </c>
       <c r="B1083" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1084" t="s">
         <v>1751</v>
@@ -14868,23 +14874,23 @@
         <v>1762</v>
       </c>
       <c r="B1090" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1091" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1764</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -14924,12 +14930,12 @@
         <v>1774</v>
       </c>
       <c r="B1097" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1098" t="s">
         <v>1776</v>
@@ -14956,12 +14962,12 @@
         <v>1781</v>
       </c>
       <c r="B1101" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1102" t="s">
         <v>1783</v>
@@ -14972,20 +14978,20 @@
         <v>1784</v>
       </c>
       <c r="B1103" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1104" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1105" t="s">
         <v>1787</v>
@@ -15196,44 +15202,44 @@
         <v>1838</v>
       </c>
       <c r="B1131" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1132" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1133" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1134" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1135" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1136" t="s">
         <v>1844</v>
@@ -15252,28 +15258,28 @@
         <v>1847</v>
       </c>
       <c r="B1138" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1139" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1140" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1141" t="s">
         <v>1851</v>
@@ -15292,12 +15298,12 @@
         <v>1854</v>
       </c>
       <c r="B1143" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1144" t="s">
         <v>1856</v>
@@ -15348,12 +15354,12 @@
         <v>1867</v>
       </c>
       <c r="B1150" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1151" t="s">
         <v>1869</v>
@@ -15404,28 +15410,28 @@
         <v>1880</v>
       </c>
       <c r="B1157" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1158" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1159" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1160" t="s">
         <v>1884</v>
@@ -15436,12 +15442,12 @@
         <v>1885</v>
       </c>
       <c r="B1161" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1162" t="s">
         <v>1887</v>
@@ -15452,20 +15458,20 @@
         <v>1888</v>
       </c>
       <c r="B1163" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1164" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1165" t="s">
         <v>1891</v>
@@ -15476,36 +15482,36 @@
         <v>1892</v>
       </c>
       <c r="B1166" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1167" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1168" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1169" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1170" t="s">
         <v>1897</v>
@@ -15524,12 +15530,12 @@
         <v>1900</v>
       </c>
       <c r="B1172" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1173" t="s">
         <v>1902</v>
@@ -15540,12 +15546,12 @@
         <v>1903</v>
       </c>
       <c r="B1174" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1175" t="s">
         <v>1905</v>
@@ -15580,12 +15586,12 @@
         <v>1912</v>
       </c>
       <c r="B1179" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1180" t="s">
         <v>1914</v>
@@ -15604,20 +15610,20 @@
         <v>1917</v>
       </c>
       <c r="B1182" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1183" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B1184" t="s">
         <v>1920</v>
@@ -15639,8 +15645,16 @@
         <v>1924</v>
       </c>
     </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1926</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/nl/headTags.xlsx
+++ b/lang/nl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1929">
   <si>
     <t>en</t>
   </si>
@@ -2797,2944 +2797,2950 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutaties)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Huisdieren)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Hersmeltsteen)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Zakken)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Huiden)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismannen)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trofee vissen)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land van de heerlijkheden)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>IJstijd</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ijsklimmer</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Ijs</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Pictogrammen (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Iconen (Ijzerblok)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Pictogrammen (Ander)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Pictogrammen (witte achtergrond)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identiteit V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Inazuma Elf</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Verwondingen</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Binnenste laag blok</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Inscryptie</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Binnenste Buiten</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invaller Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Onoverwinnelijk</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak en Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Juwelen</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's bizarre avontuur</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo's bizarre avontuur (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Reis</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Koning springen</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kaiju paradijs</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kiki's Bezorgservice</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kim Mogelijk</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Keuken</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Lampenkap</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Landschap</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lantaarn</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Luchtkasteel</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Legende van de Liga</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendarische Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Dodelijke competitie</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Bibliotheek van Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Leven is vreemd</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Limbus gezelschap</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Leeuwenkoning</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Kleine planeet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Kleine Zeemeermin</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Kleine Nachtmerries</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Kleine Heks Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Heer der Ringen</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Liefde leeft!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Wezen dat verliefd is</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Ongelukkig Persoon</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Machine deel</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Gekke Vader</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Gekke Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Gemaakt in de afgrond</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Waanzin Gevecht</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Make-up</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mannelijk</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Helden van het zuivere hart</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria en de heksenbloem</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascotte</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Masker</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Masker (volledig)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Masker (functioneel)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Masker (gezondheid)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Masker (Minecraft menigte)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Meesters van het Universum</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Wiskundig symbool</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Maaltijd</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Vlees</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Middeleeuws</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Middeleeuwse Taverne</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Middeleeuwse oorlogshelm</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evolutie</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Acteurs</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Militaire uitrusting</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft 1 april</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Editie</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft Kerkers</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Aarde</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Onderwijs Editie</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft Legenden</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft film</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Minecraft Verhaal Modus</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Mijnwerker</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Mijnenveger</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Wonderbaarlijk: Verhalen van Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Toekomstdagboek)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Spiegel's rand</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>De drakenmeid van Miss Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizuno's bronnenpakket</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Moderne oorlogshelm</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Geld</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Geld roof</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Apeneiland</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Hoog Monster</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monster Jager</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Sterfelijke Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Mondwater</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Meneer Boon</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Moorddrones</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Paddenstoel</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Paddenstoel (Biome)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Paddenstoel (Hoofddeksel)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Muziek</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Snor</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Mijn hertenvriend Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Mijn held academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Mijn kleine pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Mijn buurman Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Mijn zingende monsters</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä van de Vallei van de Wind</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Onderwaterwereld (geïnspireerd)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Ondergrond (vanille)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Neutraal wezen</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Neutraal persoon</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Oudejaarsavond</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Nacht in het bos</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Nachtmerrie voor Kerstmis</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Ninja-schildpadden</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Geen spel, geen leven</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noel's huisfeest</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Noorse Mythologie</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (Onderwijseditie)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Nucleaire Fallout</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Nucleaire troon</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Noot</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Oceaan</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>UIT</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Officier Cap</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy en de kakkerlakken</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Oud</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Open Bron Objecten</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Erts</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organen en Lichaamsdelen</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Ander Hoofddeksel</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Andere Verlichting</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Ander Mystiek Wezen</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Buitenste Laag Blok</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Opperheer</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Fopspeen</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Beschilderd gezicht</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Bleke tuin (geïnspireerd)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Panda Beer</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Pannen Labyrint</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Papieren</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa de Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Feest</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Gebak en snoep</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Betaaldag</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pinguïn</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Peppa varken</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Periodiek Systeem der Elementen</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Uitrusting voor huisdieren</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantoom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Varkentje</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Roze Panter</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky en de hersenen</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokkio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Piraten uit de Caraïben</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Pizzatoren</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeet</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Planten tegen Zombies</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Generatie 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokemon Artikelen</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Ijsbeer</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Politie</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Poppy speeltijd</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portaal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Postbode Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Powerpuff Meisjes</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Roofvis</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Aanwezig</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Trots</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primaten</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Prinses Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Pompoen</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Pompoen (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Leesteken</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Konijn</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Spoor</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Regen Wereld</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Ratel &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Roodkapje</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Roodsteen</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Regionale vorm Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Reguliere show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religie</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Reptiel</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Reddingswerkers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritme Hemel</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Lint</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick en Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risico van Regen</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rivaal van Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Rivier</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Knaagdier</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Gedraaide Entiteit</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Koninklijk hoofddeksel</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Een groot avontuur</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Droevig wezen</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Droevig persoon</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Andere)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga van Tanya het Kwaad</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samoerai Helm</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Bevredigend</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Zag</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Sjaal</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP Insluitingsbreuk</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Schreeuw</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Zee der Dieven</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Zeevaarder</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serafijn van het einde</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Seriële experimenten</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Sesamstraat</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Zeven Dodelijke Zonden</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Schaduw van de Kolossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Schaduwen van Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Schaap</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Glimmende Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Verzending</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shovel Ridder</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>Stille heuvel</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skelet</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skelet (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Sceptisch wezen</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Sceptisch Persoon</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Doornroosje</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Slapend Wezen</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Slapend Persoon</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Gesneden</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slijm</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slijm (Vanille)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slijmboer</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Sluwe Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite Goden</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Rokende</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smurfen</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Sneeuwgevecht</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Sneeuw Sculptuur</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Sneeuwwitje en de zeven dwergen</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Liederen van oorlog</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic de Egel</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Zielenridder</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Zuid Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Ruimtereizen</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Spawnen ei</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spin (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Verspreidt</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Lente tot leven</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Spy x Familie</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Inktvis Spel</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>St. Patrick's Dag</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Ster Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Star vs de krachten van het kwaad</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars Helm</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helm</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Papierwaren</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Steen</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Opslag (overig)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Vreemde dingen</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Straatvechter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Zomer</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Zonnebril</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Bovennatuurlijk</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Verrast Wezen</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Verrast Persoon</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Moeras</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Verwarde</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Kletskous</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (Calamiteiten)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Die keer dat ik reïncarneerde als slijm</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>De avonturen van Kuifje</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Het Verbazingwekkende Digitale Circus</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>De wondere wereld van Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>De Binding van Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>De Jongens</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>De kat keert terug</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>De Verleiding</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>De kopertijd</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>De nieuwe groef van de keizer</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>De Engelse ensemblesterren</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>De finale</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>De Flits</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>De Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>De Vlieg</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>De Tuin Ontwaakt</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>De goede dinosaurus</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>De Grote Muizendetective</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>De grimmige avonturen van Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>De Bochel van de Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>De IJzeren Reus</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>De laatste voogd</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>De laatste van ons</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>De legende van Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>De Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Nooitgedachtland</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Het uilenhuis</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>De prinses en de kikker</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>De Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>De weg naar El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>De Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>De drie caballero's</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>De Walten Dossiers</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>De Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Vrienden</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Die nachten bij Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Tinker's bouwwerk</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom en Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Graf Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Pioniers van morgen</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Tandkloof</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Totaal Drama-eiland</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Speelgoed</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Speelgoedverhaal</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Verkeer</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Verkeerslicht</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Verkeersbord</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Sporen en verhalen</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Transparant Hoofd</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Vuilnisbak</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Schat</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Schat Planeet</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Lastige proeven update</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Schildpad</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Schemerbos</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Verwrongen Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Als ze huilen</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Geel</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Universeel symbool</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Omhoog</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Stedelijke fauna</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V voor vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valentijnen</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Dapper</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanille (verwijderd)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanille Blok</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanille Voedsel</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vanille Helm</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanille-item</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vanille Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Kluisjagers</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Groente</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Voertuig</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingen</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Dorpeling</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Woestijn)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Jungle)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Vlaktes)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Savanne)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Besneeuwde toendra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Moeras)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Dorpeling (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtuele Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace en Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Oorlog der Werelden</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Krijgerskatten</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>We Bears</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Weer</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Welkom Thuis</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Wie is dit?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Wilde update</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Vleugels van vuur</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winnie de Poeh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Heks</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Wondere wereld</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Hout</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Wol</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Veiligheidshelm</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Sloop Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Xenoblade kronieken</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Gele duikboot</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jonge</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Nul Vleugel</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Dierenriemteken</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanille)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (Mutaties) Label</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Huisdieren)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Hersmeltsteen)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Zakken)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Huiden)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismannen)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trofee vissen)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land van de heerlijkheden)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>IJstijd</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ijsklimmer</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Ijs</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Pictogrammen (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Iconen (Ijzerblok)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Pictogrammen (Ander)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Pictogrammen (witte achtergrond)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identiteit V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Inazuma Elf</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Verwondingen</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Binnenste laag blok</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Inscryptie</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Binnenste Buiten</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invaller Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Onoverwinnelijk</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak en Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Juwelen</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's bizarre avontuur</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo's bizarre avontuur (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Reis</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Koning springen</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kaiju paradijs</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kiki's Bezorgservice</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kim Mogelijk</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Keuken</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Lampenkap</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Landschap</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lantaarn</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Luchtkasteel</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Legende van de Liga</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendarische Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Dodelijke competitie</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Bibliotheek van Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Leven is vreemd</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Limbus gezelschap</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Leeuwenkoning</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Kleine planeet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Kleine Zeemeermin</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Kleine Nachtmerries</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Kleine Heks Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Heer der Ringen</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Liefde leeft!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Wezen dat verliefd is</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Ongelukkig Persoon</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Machine deel</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Gekke Vader</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Gekke Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Gemaakt in de afgrond</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Waanzin Gevecht</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Make-up</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Mannelijk</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Helden van het zuivere hart</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria en de heksenbloem</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascotte</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Masker</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Masker (volledig)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Masker (functioneel)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Masker (gezondheid)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Masker (Minecraft menigte)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Meesters van het Universum</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Wiskundig symbool</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Maaltijd</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Vlees</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Middeleeuws</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Middeleeuwse Taverne</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Middeleeuwse oorlogshelm</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evolutie</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Acteurs</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Militaire uitrusting</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft 1 april</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Editie</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft Kerkers</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Aarde</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Onderwijs Editie</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft Legenden</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft film</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Minecraft Verhaal Modus</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Mijnwerker</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Mijnenveger</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Wonderbaarlijk: Verhalen van Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Toekomstdagboek)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Spiegel's rand</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>De drakenmeid van Miss Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizuno's bronnenpakket</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Moderne oorlogshelm</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Geld</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Geld roof</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Apeneiland</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Hoog Monster</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monster Jager</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Sterfelijke Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Mondwater</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Meneer Boon</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Moorddrones</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Paddenstoel</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Paddenstoel (Biome)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Paddenstoel (Hoofddeksel)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Muziek</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Snor</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Mijn hertenvriend Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Mijn held academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Mijn kleine pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Mijn buurman Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Mijn zingende monsters</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä van de Vallei van de Wind</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Onderwaterwereld (geïnspireerd)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Ondergrond (vanille)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Neutraal wezen</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Neutraal persoon</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Oudejaarsavond</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Nacht in het bos</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Nachtmerrie voor Kerstmis</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Ninja-schildpadden</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Geen spel, geen leven</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noel's huisfeest</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Noorse Mythologie</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (Onderwijseditie)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Nucleaire Fallout</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Nucleaire troon</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Nummer</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Noot</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Oceaan</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>UIT</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Officier Cap</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy en de kakkerlakken</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Oud</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Open Bron Objecten</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Erts</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organen en Lichaamsdelen</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Ander Hoofddeksel</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Andere Verlichting</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Ander Mystiek Wezen</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Buitenste Laag Blok</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Opperheer</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Fopspeen</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Beschilderd gezicht</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Bleke tuin (geïnspireerd)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Panda Beer</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Pannen Labyrint</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Papieren</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa de Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Feest</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Gebak en snoep</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Betaaldag</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pinguïn</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Peppa varken</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Periodiek Systeem der Elementen</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Uitrusting voor huisdieren</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantoom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Varkentje</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Roze Panter</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky en de hersenen</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokkio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Piraten uit de Caraïben</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Pizzatoren</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeet</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Planten tegen Zombies</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Generatie 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokemon Artikelen</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Ijsbeer</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Politie</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Poppy speeltijd</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portaal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Postbode Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Powerpuff Meisjes</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Roofvis</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Aanwezig</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Trots</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primaten</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Prinses Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Pompoen</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Pompoen (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Leesteken</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Konijn</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Spoor</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Regen Wereld</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Ratel &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Roodkapje</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Roodsteen</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Regionale vorm Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Reguliere show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religie</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Reptiel</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Reddingswerkers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritme Hemel</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Lint</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick en Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risico van Regen</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rivaal van Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Rivier</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Knaagdier</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Gedraaide Entiteit</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Koninklijk hoofddeksel</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Een groot avontuur</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Droevig wezen</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Droevig persoon</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Andere)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga van Tanya het Kwaad</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samoerai Helm</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Bevredigend</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Zag</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Sjaal</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP Insluitingsbreuk</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Schreeuw</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Zee der Dieven</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Zeevaarder</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serafijn van het einde</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Seriële experimenten</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Sesamstraat</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Zeven Dodelijke Zonden</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Schaduw van de Kolossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Schaduwen van Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Schaap</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Glimmende Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Verzending</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shovel Ridder</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>Stille heuvel</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skelet</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skelet (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Sceptisch wezen</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Sceptisch Persoon</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Doornroosje</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Slapend Wezen</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Slapend Persoon</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Gesneden</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slijm</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slijm (Vanille)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slijmboer</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Sluwe Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite Goden</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Rokende</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smurfen</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Sneeuwgevecht</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Sneeuw Sculptuur</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Sneeuwwitje en de zeven dwergen</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Liederen van oorlog</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic de Egel</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Zielenridder</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Zuid Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Ruimtereizen</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Spawnen ei</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Spin</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spin (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Verspreidt</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Lente tot leven</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Spy x Familie</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Inktvis Spel</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>St. Patrick's Dag</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Ster Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Star vs de krachten van het kwaad</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars Helm</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helm</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Papierwaren</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Steen</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Opslag (overig)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Vreemde dingen</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Straatvechter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Zomer</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Zonnebril</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Bovennatuurlijk</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Verrast Wezen</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Verrast Persoon</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Moeras</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Verwarde</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Kletskous</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (Calamiteiten)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Die keer dat ik reïncarneerde als slijm</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>De avonturen van Kuifje</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Het Verbazingwekkende Digitale Circus</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>De wondere wereld van Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>De Binding van Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>De Jongens</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>De kat keert terug</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>De Verleiding</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>De kopertijd</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>De nieuwe groef van de keizer</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>De Engelse ensemblesterren</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>De finale</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>De Flits</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>De Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>De Vlieg</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>De Tuin Ontwaakt</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>De goede dinosaurus</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>De Grote Muizendetective</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>De grimmige avonturen van Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>De Bochel van de Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>De IJzeren Reus</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>De laatste voogd</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>De laatste van ons</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>De legende van Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>De Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Nooitgedachtland</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Het uilenhuis</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>De prinses en de kikker</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>De Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>De weg naar El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>De Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>De drie caballero's</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>De Walten Dossiers</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>De Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Vrienden</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Die nachten bij Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Tinker's bouwwerk</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom en Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Graf Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Pioniers van morgen</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Tandkloof</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Totaal Drama-eiland</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Speelgoed</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Speelgoedverhaal</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Verkeer</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Verkeerslicht</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Verkeersbord</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Sporen en verhalen</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Transparant Hoofd</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Vuilnisbak</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Schat</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Schat Planeet</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Lastige proeven update</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Schildpad</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Schemerbos</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Verwrongen Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Als ze huilen</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Geel</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Universeel symbool</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Omhoog</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Stedelijke fauna</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V voor vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valentijnen</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Dapper</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanille (verwijderd)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanille Blok</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanille Voedsel</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vanille Helm</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanille-item</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vanille Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Kluisjagers</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Groente</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Voertuig</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingen</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Dorpeling</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Woestijn)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Jungle)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Vlaktes)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Savanne)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Besneeuwde toendra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Moeras)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Dorpeling (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtuele Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace en Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Oorlog der Werelden</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Krijgerskatten</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>We Bears</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Weer</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Welkom Thuis</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Wie is dit?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Wilde update</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Vleugels van vuur</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winnie de Poeh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Heks</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Wondere wereld</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Hout</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Wol</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Veiligheidshelm</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Sloop Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Xenoblade kronieken</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Gele duikboot</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Jonge</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Nul Vleugel</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Dierenriemteken</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanille)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6144,7 +6150,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15594,12 +15600,12 @@
         <v>1914</v>
       </c>
       <c r="B1180" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B1181" t="s">
         <v>1916</v>
@@ -15618,20 +15624,20 @@
         <v>1919</v>
       </c>
       <c r="B1183" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B1184" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B1185" t="s">
         <v>1922</v>
@@ -15653,8 +15659,16 @@
         <v>1926</v>
       </c>
     </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1928</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
